--- a/documentation/Planning.xlsx
+++ b/documentation/Planning.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/axelle_hertig_studentfr_ch/Documents/Travail/Informatique/Dossier de formation/5-Modules/3ème année/Formation-Générale/306/dossier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{F9FCC793-9AF1-487E-ADC4-90B0D518A739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E7A505-8557-484B-8409-069DA274B798}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68977E4A-874A-4A58-B488-BE9E47185C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22530" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$A:$C,Planning!$1:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BK$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$BK$59</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <r>
       <t>Projet :</t>
@@ -119,6 +119,12 @@
     <t>Gremaud Valentin</t>
   </si>
   <si>
+    <t>Valentin + Noé</t>
+  </si>
+  <si>
+    <t>Diogo+Axelle+Noe</t>
+  </si>
+  <si>
     <t>Tous</t>
   </si>
   <si>
@@ -149,9 +155,18 @@
     <t>heures &gt;</t>
   </si>
   <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
     <t>Lecture complète cahier des charges + business case</t>
   </si>
   <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Férié</t>
   </si>
   <si>
@@ -176,19 +191,70 @@
     <t>Création diagramme de séquence</t>
   </si>
   <si>
+    <t>Création diagramme Entité-Relation (ER)</t>
+  </si>
+  <si>
     <t>Création diagramme de classes</t>
   </si>
   <si>
-    <t>Création diagramme Entité-Relation (ER)</t>
+    <t>Rendez-vous client</t>
+  </si>
+  <si>
+    <t>Documentation initiale : planification et architecture</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Finalisation et validation UML</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Configuration Raspberry Pi / serveur</t>
+  </si>
+  <si>
+    <t>Installation serveur web / configuration réseau</t>
+  </si>
+  <si>
+    <t>Déploiement prototype HTML/CSS/JS sur serveur</t>
+  </si>
+  <si>
+    <t>Test accès navigateur externe</t>
+  </si>
+  <si>
+    <t>Création maquettes interface menu minimal</t>
+  </si>
+  <si>
+    <t>Prototype menu arcade minimal</t>
+  </si>
+  <si>
+    <t>Développement Jeu 1 : logiques de base et collisions</t>
+  </si>
+  <si>
+    <t>Organisation dossiers assets (images/sons)</t>
+  </si>
+  <si>
+    <t>Chargement dynamique assets via JS</t>
+  </si>
+  <si>
+    <t>Implémentation contrôles clavier</t>
   </si>
   <si>
     <t>Test Gamepad API sur PC</t>
   </si>
   <si>
-    <t>Documentation initiale : planification et architecture</t>
-  </si>
-  <si>
-    <t>Développement Jeu 1 : logiques de base et collisions</t>
+    <t>Optimisation Canvas 2D / performance Jeu 1</t>
+  </si>
+  <si>
+    <t>Intégration Jeu 1 dans menu arcade</t>
+  </si>
+  <si>
+    <t>Tests d’intégration du jeu</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
   <si>
     <t>Développement Jeu 2 : logiques de base et collisions</t>
@@ -197,115 +263,55 @@
     <t>Développement Jeu 3 : logiques de base et collisions</t>
   </si>
   <si>
+    <t>Implémentation contrôles manette</t>
+  </si>
+  <si>
+    <t>Chargement dynamique assets Jeux 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Optimisation Canvas 2D Jeux 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Intégration Jeux 2 &amp; 3 dans menu arcade</t>
+  </si>
+  <si>
+    <t>Dév logique scoring pour Jeux 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Bouton reset scores</t>
+  </si>
+  <si>
+    <t>Tests performance navigateur + Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Vérification finale compatibilité manette/PC</t>
+  </si>
+  <si>
+    <t>Correction bugs critiques</t>
+  </si>
+  <si>
+    <t>Vérification finale code + compatibilité manette/PC</t>
+  </si>
+  <si>
+    <t>Tests utilisateurs finaux</t>
+  </si>
+  <si>
     <t>Préparation Web Summary</t>
   </si>
   <si>
+    <t>sprint 5</t>
+  </si>
+  <si>
     <t>Préparation démo finale + présentation</t>
   </si>
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Finalisation et validation UML</t>
-  </si>
-  <si>
-    <t>Rendez-vous client</t>
-  </si>
-  <si>
-    <t>Valentin + Noé</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Bouton reset scores</t>
-  </si>
-  <si>
-    <t>Correction bugs critiques</t>
-  </si>
-  <si>
-    <t>Tests utilisateurs finaux</t>
-  </si>
-  <si>
-    <t>Configuration Raspberry Pi / serveur</t>
-  </si>
-  <si>
-    <t>Installation serveur web / configuration réseau</t>
-  </si>
-  <si>
-    <t>Test accès navigateur externe</t>
-  </si>
-  <si>
-    <t>Création maquettes interface menu minimal</t>
-  </si>
-  <si>
-    <t>Prototype menu arcade minimal</t>
-  </si>
-  <si>
-    <t>Organisation dossiers assets (images/sons)</t>
-  </si>
-  <si>
-    <t>Chargement dynamique assets via JS</t>
-  </si>
-  <si>
-    <t>Implémentation contrôles clavier</t>
-  </si>
-  <si>
-    <t>Optimisation Canvas 2D / performance Jeu 1</t>
-  </si>
-  <si>
-    <t>Intégration Jeu 1 dans menu arcade</t>
-  </si>
-  <si>
-    <t>Tests d’intégration du jeu</t>
-  </si>
-  <si>
-    <t>Implémentation contrôles manette</t>
-  </si>
-  <si>
-    <t>Chargement dynamique assets Jeux 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Optimisation Canvas 2D Jeux 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Intégration Jeux 2 &amp; 3 dans menu arcade</t>
-  </si>
-  <si>
-    <t>Dév logique scoring pour Jeux 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Tests performance navigateur + Raspberry Pi</t>
-  </si>
-  <si>
-    <t>Vérification finale compatibilité manette/PC</t>
-  </si>
-  <si>
-    <t>Diogo+Axelle+Noe</t>
-  </si>
-  <si>
-    <t>sprint 5</t>
-  </si>
-  <si>
-    <t>Sprint 4(version finale + scoring+ test )</t>
-  </si>
-  <si>
-    <t>Sprint 3 (Jeux 2 &amp; 3 jouables + menu arcade finale + reponsive)</t>
-  </si>
-  <si>
-    <t>Sprint 2 (jeu 1 jouable + menu minimal + serveur accessible)</t>
-  </si>
-  <si>
-    <t>Securite jeu 1</t>
-  </si>
-  <si>
-    <t>Menu atract</t>
-  </si>
-  <si>
-    <t>Securite jeu 2 &amp; 3</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +440,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -914,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1022,19 +1050,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1098,14 +1114,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1216,10 +1224,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1246,15 +1250,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1281,6 +1293,90 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1323,92 +1419,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1463,22 +1473,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle à coins arrondis 1">
+        <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C616FB7-74A5-461B-A5DE-D918C6D507C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,66 +1496,52 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3515105" y="704022"/>
-          <a:ext cx="361155" cy="5441415"/>
+          <a:off x="4752976" y="2457451"/>
+          <a:ext cx="7286624" cy="8267699"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zone d'avancement &gt;&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> étirer sur la gauche pour montrer l'avancement du projet</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CH" sz="900"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1896,13 +1892,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="J20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT38" sqref="AT38"/>
+      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1928,11 +1924,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2124,9 +2120,9 @@
     </row>
     <row r="6" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="79"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="73"/>
       <c r="C6" s="23"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2163,9 +2159,9 @@
     </row>
     <row r="7" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="94"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="90"/>
       <c r="C7" s="23"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2202,145 +2198,145 @@
     </row>
     <row r="8" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="111"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="110"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="110"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="110"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="110"/>
+      <c r="BJ8" s="110"/>
+      <c r="BK8" s="110"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="112"/>
-      <c r="Y9" s="112"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="112"/>
-      <c r="AJ9" s="112"/>
-      <c r="AK9" s="112"/>
-      <c r="AL9" s="112"/>
-      <c r="AM9" s="112"/>
-      <c r="AN9" s="112"/>
-      <c r="AO9" s="112"/>
-      <c r="AP9" s="112"/>
-      <c r="AQ9" s="112"/>
-      <c r="AR9" s="112"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="112"/>
-      <c r="AU9" s="112"/>
-      <c r="AV9" s="112"/>
-      <c r="AW9" s="112"/>
-      <c r="AX9" s="112"/>
-      <c r="AY9" s="112"/>
-      <c r="AZ9" s="112"/>
-      <c r="BA9" s="112"/>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="112"/>
-      <c r="BE9" s="112"/>
-      <c r="BF9" s="112"/>
-      <c r="BG9" s="112"/>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="111"/>
+      <c r="BJ9" s="111"/>
+      <c r="BK9" s="111"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
-        <v>6</v>
+      <c r="A10" s="115" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" s="107"/>
       <c r="F10" s="107"/>
@@ -2352,13 +2348,13 @@
       <c r="J10" s="108"/>
       <c r="K10" s="109"/>
       <c r="L10" s="106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M10" s="107"/>
       <c r="N10" s="107"/>
       <c r="O10" s="107"/>
       <c r="P10" s="106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="107"/>
       <c r="R10" s="107"/>
@@ -2370,13 +2366,13 @@
       <c r="V10" s="108"/>
       <c r="W10" s="109"/>
       <c r="X10" s="106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="107"/>
       <c r="Z10" s="107"/>
       <c r="AA10" s="107"/>
       <c r="AB10" s="106" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC10" s="107"/>
       <c r="AD10" s="107"/>
@@ -2388,13 +2384,13 @@
       <c r="AH10" s="108"/>
       <c r="AI10" s="109"/>
       <c r="AJ10" s="106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK10" s="107"/>
       <c r="AL10" s="107"/>
       <c r="AM10" s="107"/>
       <c r="AN10" s="106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO10" s="107"/>
       <c r="AP10" s="107"/>
@@ -2406,13 +2402,13 @@
       <c r="AT10" s="108"/>
       <c r="AU10" s="109"/>
       <c r="AV10" s="106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW10" s="107"/>
       <c r="AX10" s="107"/>
       <c r="AY10" s="107"/>
       <c r="AZ10" s="106" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA10" s="107"/>
       <c r="BB10" s="107"/>
@@ -2424,284 +2420,296 @@
       <c r="BF10" s="108"/>
       <c r="BG10" s="109"/>
       <c r="BH10" s="106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI10" s="107"/>
       <c r="BJ10" s="107"/>
       <c r="BK10" s="107"/>
-      <c r="BL10" s="95" t="s">
-        <v>12</v>
+      <c r="BL10" s="112" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99"/>
-      <c r="B11" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="A11" s="116"/>
+      <c r="B11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="59">
         <v>1</v>
       </c>
       <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="66">
         <v>3</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="66">
         <v>4</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="66">
         <v>5</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="66">
         <v>6</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="66">
         <v>7</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="67">
         <v>8</v>
       </c>
-      <c r="L11" s="64">
+      <c r="L11" s="59">
         <v>1</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="66">
         <v>2</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="66">
         <v>3</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="66">
         <v>4</v>
       </c>
-      <c r="P11" s="64">
+      <c r="P11" s="59">
         <v>1</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="66">
         <v>2</v>
       </c>
-      <c r="R11" s="71">
+      <c r="R11" s="66">
         <v>3</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="66">
         <v>4</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="66">
         <v>5</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="66">
         <v>6</v>
       </c>
-      <c r="V11" s="71">
+      <c r="V11" s="66">
         <v>7</v>
       </c>
-      <c r="W11" s="72">
+      <c r="W11" s="67">
         <v>8</v>
       </c>
-      <c r="X11" s="64">
+      <c r="X11" s="59">
         <v>1</v>
       </c>
-      <c r="Y11" s="71">
+      <c r="Y11" s="66">
         <v>2</v>
       </c>
-      <c r="Z11" s="71">
+      <c r="Z11" s="66">
         <v>3</v>
       </c>
-      <c r="AA11" s="71">
+      <c r="AA11" s="66">
         <v>4</v>
       </c>
-      <c r="AB11" s="64">
+      <c r="AB11" s="59">
         <v>1</v>
       </c>
-      <c r="AC11" s="71">
+      <c r="AC11" s="66">
         <v>2</v>
       </c>
-      <c r="AD11" s="71">
+      <c r="AD11" s="66">
         <v>3</v>
       </c>
-      <c r="AE11" s="71">
+      <c r="AE11" s="66">
         <v>4</v>
       </c>
-      <c r="AF11" s="71">
+      <c r="AF11" s="66">
         <v>5</v>
       </c>
-      <c r="AG11" s="71">
+      <c r="AG11" s="66">
         <v>6</v>
       </c>
-      <c r="AH11" s="71">
+      <c r="AH11" s="66">
         <v>7</v>
       </c>
-      <c r="AI11" s="72">
+      <c r="AI11" s="67">
         <v>8</v>
       </c>
-      <c r="AJ11" s="64">
+      <c r="AJ11" s="59">
         <v>1</v>
       </c>
-      <c r="AK11" s="71">
+      <c r="AK11" s="66">
         <v>2</v>
       </c>
-      <c r="AL11" s="71">
+      <c r="AL11" s="66">
         <v>3</v>
       </c>
-      <c r="AM11" s="71">
+      <c r="AM11" s="66">
         <v>4</v>
       </c>
-      <c r="AN11" s="64">
+      <c r="AN11" s="59">
         <v>1</v>
       </c>
-      <c r="AO11" s="71">
+      <c r="AO11" s="66">
         <v>2</v>
       </c>
-      <c r="AP11" s="71">
+      <c r="AP11" s="66">
         <v>3</v>
       </c>
-      <c r="AQ11" s="71">
+      <c r="AQ11" s="66">
         <v>4</v>
       </c>
-      <c r="AR11" s="71">
+      <c r="AR11" s="66">
         <v>5</v>
       </c>
-      <c r="AS11" s="71">
+      <c r="AS11" s="66">
         <v>6</v>
       </c>
-      <c r="AT11" s="71">
+      <c r="AT11" s="66">
         <v>7</v>
       </c>
-      <c r="AU11" s="72">
+      <c r="AU11" s="67">
         <v>8</v>
       </c>
-      <c r="AV11" s="64">
+      <c r="AV11" s="59">
         <v>1</v>
       </c>
-      <c r="AW11" s="71">
+      <c r="AW11" s="66">
         <v>2</v>
       </c>
-      <c r="AX11" s="71">
+      <c r="AX11" s="66">
         <v>3</v>
       </c>
-      <c r="AY11" s="71">
+      <c r="AY11" s="66">
         <v>4</v>
       </c>
-      <c r="AZ11" s="64">
+      <c r="AZ11" s="59">
         <v>1</v>
       </c>
-      <c r="BA11" s="71">
+      <c r="BA11" s="66">
         <v>2</v>
       </c>
-      <c r="BB11" s="71">
+      <c r="BB11" s="66">
         <v>3</v>
       </c>
-      <c r="BC11" s="71">
+      <c r="BC11" s="66">
         <v>4</v>
       </c>
-      <c r="BD11" s="71">
+      <c r="BD11" s="66">
         <v>5</v>
       </c>
-      <c r="BE11" s="71">
+      <c r="BE11" s="66">
         <v>6</v>
       </c>
-      <c r="BF11" s="71">
+      <c r="BF11" s="66">
         <v>7</v>
       </c>
-      <c r="BG11" s="72">
+      <c r="BG11" s="67">
         <v>8</v>
       </c>
-      <c r="BH11" s="64">
+      <c r="BH11" s="59">
         <v>1</v>
       </c>
-      <c r="BI11" s="71">
+      <c r="BI11" s="66">
         <v>2</v>
       </c>
-      <c r="BJ11" s="71">
+      <c r="BJ11" s="66">
         <v>3</v>
       </c>
-      <c r="BK11" s="71">
+      <c r="BK11" s="66">
         <v>4</v>
       </c>
-      <c r="BL11" s="95"/>
+      <c r="BL11" s="112"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="74"/>
-      <c r="AK12" s="70"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="74"/>
-      <c r="AO12" s="70"/>
-      <c r="AP12" s="70"/>
-      <c r="AQ12" s="70"/>
-      <c r="AR12" s="70"/>
-      <c r="AS12" s="70"/>
-      <c r="AT12" s="70"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="74"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="74"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="70"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="74"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="70"/>
-      <c r="BK12" s="70"/>
-      <c r="BL12" s="96"/>
+      <c r="A12" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="65"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="68"/>
+      <c r="BH12" s="69"/>
+      <c r="BI12" s="65"/>
+      <c r="BJ12" s="65"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="113"/>
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="66"/>
+      <c r="A13" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>20</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -2709,16 +2717,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="102"/>
+      <c r="P13" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="119"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2759,34 +2767,40 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-      <c r="BL13" s="95"/>
+      <c r="BL13" s="112"/>
     </row>
     <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="J14" s="12"/>
       <c r="K14" s="13"/>
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="102"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="119"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -2827,34 +2841,44 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="95"/>
+      <c r="BL14" s="112"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="12"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="44"/>
+      <c r="M15" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="102"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="119"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2895,34 +2919,40 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
-      <c r="BL15" s="95"/>
+      <c r="BL15" s="112"/>
     </row>
     <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="39"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="12"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="102"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="119"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -2963,34 +2993,38 @@
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="95"/>
+      <c r="BL16" s="112"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="33"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="47"/>
+      <c r="L17" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="119"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -3031,13 +3065,15 @@
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="95"/>
+      <c r="BL17" s="112"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -3045,20 +3081,22 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="44"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="102"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="119"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -3099,13 +3137,15 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="95"/>
+      <c r="BL18" s="112"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -3114,19 +3154,21 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="50"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="94" t="s">
+        <v>20</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="102"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="119"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -3167,13 +3209,15 @@
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="95"/>
+      <c r="BL19" s="112"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
@@ -3184,19 +3228,21 @@
       <c r="J20" s="12"/>
       <c r="K20" s="13"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="37"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="102"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="119"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="12"/>
+      <c r="Y20" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
@@ -3235,13 +3281,15 @@
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="95"/>
+      <c r="BL20" s="112"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
@@ -3252,18 +3300,20 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="11"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
@@ -3303,13 +3353,15 @@
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="95"/>
+      <c r="BL21" s="112"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -3320,17 +3372,17 @@
       <c r="J22" s="12"/>
       <c r="K22" s="13"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="102"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="119"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
@@ -3371,13 +3423,15 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="95"/>
+      <c r="BL22" s="112"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -3388,17 +3442,19 @@
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="12"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="12"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="102"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="119"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -3439,13 +3495,15 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="95"/>
+      <c r="BL23" s="112"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
@@ -3456,18 +3514,24 @@
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="119"/>
+      <c r="X24" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -3507,13 +3571,15 @@
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="95"/>
+      <c r="BL24" s="112"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -3526,15 +3592,15 @@
       <c r="L25" s="11"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="102"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="119"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -3575,81 +3641,83 @@
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="95"/>
+      <c r="BL25" s="112"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A26" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="62"/>
+      <c r="A26" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="57"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="58"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="58"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="60"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="58"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="60"/>
-      <c r="BH26" s="58"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="95"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="54"/>
+      <c r="AH26" s="54"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="55"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="53"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="54"/>
+      <c r="BC26" s="54"/>
+      <c r="BD26" s="54"/>
+      <c r="BE26" s="54"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="55"/>
+      <c r="BH26" s="53"/>
+      <c r="BI26" s="54"/>
+      <c r="BJ26" s="54"/>
+      <c r="BK26" s="54"/>
+      <c r="BL26" s="112"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
@@ -3663,20 +3731,22 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="119"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -3711,13 +3781,15 @@
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="95"/>
+      <c r="BL27" s="112"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
@@ -3731,23 +3803,25 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="91"/>
+      <c r="Z28" s="91"/>
+      <c r="AA28" s="91"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
+      <c r="AF28" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
       <c r="AI28" s="13"/>
@@ -3779,13 +3853,15 @@
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="95"/>
+      <c r="BL28" s="112"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
@@ -3796,28 +3872,30 @@
       <c r="J29" s="12"/>
       <c r="K29" s="13"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="51"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="85"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="119"/>
+      <c r="X29" s="79"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
       <c r="AF29" s="12"/>
       <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
+      <c r="AH29" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
@@ -3847,13 +3925,15 @@
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="95"/>
+      <c r="BL29" s="112"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
@@ -3864,29 +3944,31 @@
       <c r="J30" s="12"/>
       <c r="K30" s="13"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="51"/>
+      <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="12"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="119"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="40"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="13"/>
+      <c r="AI30" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="AJ30" s="11"/>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
@@ -3915,13 +3997,15 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="95"/>
+      <c r="BL30" s="112"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
@@ -3932,25 +4016,27 @@
       <c r="J31" s="12"/>
       <c r="K31" s="13"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
@@ -3983,13 +4069,15 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="95"/>
+      <c r="BL31" s="112"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
@@ -4000,32 +4088,32 @@
       <c r="J32" s="12"/>
       <c r="K32" s="13"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="86"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="114"/>
-      <c r="AL32" s="114"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
       <c r="AM32" s="12"/>
       <c r="AN32" s="11"/>
       <c r="AO32" s="12"/>
@@ -4050,14 +4138,16 @@
       <c r="BH32" s="11"/>
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
-      <c r="BK32" s="59"/>
-      <c r="BL32" s="95"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="112"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
@@ -4071,28 +4161,32 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="113"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="114"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="41"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="38"/>
       <c r="AL33" s="12"/>
       <c r="AM33" s="12"/>
       <c r="AN33" s="11"/>
@@ -4118,14 +4212,16 @@
       <c r="BH33" s="11"/>
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
-      <c r="BK33" s="59"/>
-      <c r="BL33" s="95"/>
+      <c r="BK33" s="54"/>
+      <c r="BL33" s="112"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
@@ -4139,26 +4235,28 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="119"/>
-      <c r="AB34" s="83"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="84"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="119"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="46"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF34" s="46"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="78"/>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="12"/>
@@ -4187,13 +4285,15 @@
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="95"/>
+      <c r="BL34" s="112"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
@@ -4206,25 +4306,27 @@
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="122"/>
-      <c r="Z35" s="122"/>
-      <c r="AA35" s="116"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="118"/>
+      <c r="R35" s="118"/>
+      <c r="S35" s="118"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="118"/>
+      <c r="V35" s="118"/>
+      <c r="W35" s="119"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="12"/>
       <c r="AE35" s="12"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="40"/>
+      <c r="AF35" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="37"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="11"/>
@@ -4255,13 +4357,15 @@
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="95"/>
+      <c r="BL35" s="112"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
@@ -4275,26 +4379,28 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="123"/>
-      <c r="Y36" s="124"/>
-      <c r="Z36" s="124"/>
-      <c r="AA36" s="124"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="118"/>
+      <c r="R36" s="118"/>
+      <c r="S36" s="118"/>
+      <c r="T36" s="118"/>
+      <c r="U36" s="118"/>
+      <c r="V36" s="118"/>
+      <c r="W36" s="119"/>
+      <c r="X36" s="82"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="83"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="12"/>
       <c r="AD36" s="12"/>
       <c r="AE36" s="12"/>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="89"/>
-      <c r="AI36" s="90"/>
+      <c r="AF36" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="86"/>
       <c r="AJ36" s="11"/>
       <c r="AK36" s="12"/>
       <c r="AL36" s="12"/>
@@ -4323,13 +4429,15 @@
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="95"/>
+      <c r="BL36" s="112"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
@@ -4343,28 +4451,28 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="102"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="114"/>
-      <c r="AA37" s="114"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="118"/>
+      <c r="R37" s="118"/>
+      <c r="S37" s="118"/>
+      <c r="T37" s="118"/>
+      <c r="U37" s="118"/>
+      <c r="V37" s="118"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="12"/>
       <c r="AE37" s="12"/>
-      <c r="AF37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="46"/>
+      <c r="AF37" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="43"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="12"/>
       <c r="AL37" s="12"/>
@@ -4393,13 +4501,15 @@
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="95"/>
+      <c r="BL37" s="112"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
@@ -4413,14 +4523,14 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="102"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="118"/>
+      <c r="V38" s="118"/>
+      <c r="W38" s="119"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4431,11 +4541,13 @@
       <c r="AE38" s="12"/>
       <c r="AF38" s="12"/>
       <c r="AG38" s="12"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="42"/>
-      <c r="AJ38" s="82"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="12"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="101"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AM38" s="12"/>
       <c r="AN38" s="11"/>
       <c r="AO38" s="12"/>
@@ -4461,13 +4573,15 @@
       <c r="BI38" s="12"/>
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="95"/>
+      <c r="BL38" s="112"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
@@ -4481,14 +4595,14 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="102"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="118"/>
+      <c r="U39" s="118"/>
+      <c r="V39" s="118"/>
+      <c r="W39" s="119"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4500,11 +4614,13 @@
       <c r="AF39" s="12"/>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="114"/>
-      <c r="AM39" s="114"/>
+      <c r="AI39" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
       <c r="AN39" s="11"/>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12"/>
@@ -4529,13 +4645,15 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="95"/>
+      <c r="BL39" s="112"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
@@ -4549,14 +4667,14 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="101"/>
-      <c r="V40" s="101"/>
-      <c r="W40" s="102"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="118"/>
+      <c r="S40" s="118"/>
+      <c r="T40" s="118"/>
+      <c r="U40" s="118"/>
+      <c r="V40" s="118"/>
+      <c r="W40" s="119"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4568,11 +4686,13 @@
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
       <c r="AH40" s="12"/>
-      <c r="AI40" s="13"/>
+      <c r="AI40" s="102"/>
       <c r="AJ40" s="11"/>
       <c r="AK40" s="12"/>
-      <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="103" t="s">
+        <v>69</v>
+      </c>
       <c r="AN40" s="11"/>
       <c r="AO40" s="12"/>
       <c r="AP40" s="12"/>
@@ -4596,82 +4716,84 @@
       <c r="BH40" s="11"/>
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
-      <c r="BK40" s="59"/>
-      <c r="BL40" s="95"/>
+      <c r="BK40" s="54"/>
+      <c r="BL40" s="112"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
-      <c r="U41" s="101"/>
-      <c r="V41" s="101"/>
-      <c r="W41" s="102"/>
-      <c r="X41" s="58"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="58"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="58"/>
-      <c r="AO41" s="59"/>
-      <c r="AP41" s="59"/>
-      <c r="AQ41" s="59"/>
-      <c r="AR41" s="59"/>
-      <c r="AS41" s="59"/>
-      <c r="AT41" s="59"/>
-      <c r="AU41" s="60"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="59"/>
-      <c r="AX41" s="59"/>
-      <c r="AY41" s="59"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="59"/>
-      <c r="BB41" s="59"/>
-      <c r="BC41" s="59"/>
-      <c r="BD41" s="59"/>
-      <c r="BE41" s="59"/>
-      <c r="BF41" s="59"/>
-      <c r="BG41" s="60"/>
-      <c r="BH41" s="58"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="95"/>
+      <c r="A41" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="57"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="118"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="118"/>
+      <c r="T41" s="118"/>
+      <c r="U41" s="118"/>
+      <c r="V41" s="118"/>
+      <c r="W41" s="119"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="54"/>
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="55"/>
+      <c r="AJ41" s="53"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="53"/>
+      <c r="AO41" s="54"/>
+      <c r="AP41" s="54"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="54"/>
+      <c r="AT41" s="54"/>
+      <c r="AU41" s="55"/>
+      <c r="AV41" s="53"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="54"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="53"/>
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="54"/>
+      <c r="BD41" s="54"/>
+      <c r="BE41" s="54"/>
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="55"/>
+      <c r="BH41" s="53"/>
+      <c r="BI41" s="54"/>
+      <c r="BJ41" s="54"/>
+      <c r="BK41" s="54"/>
+      <c r="BL41" s="112"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
       <c r="E42" s="12"/>
@@ -4685,14 +4807,14 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
-      <c r="U42" s="101"/>
-      <c r="V42" s="101"/>
-      <c r="W42" s="102"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
+      <c r="S42" s="118"/>
+      <c r="T42" s="118"/>
+      <c r="U42" s="118"/>
+      <c r="V42" s="118"/>
+      <c r="W42" s="119"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4706,13 +4828,15 @@
       <c r="AH42" s="12"/>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="11"/>
-      <c r="AK42" s="12"/>
+      <c r="AK42" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
-      <c r="AN42" s="91"/>
-      <c r="AO42" s="92"/>
-      <c r="AP42" s="92"/>
-      <c r="AQ42" s="92"/>
+      <c r="AN42" s="87"/>
+      <c r="AO42" s="88"/>
+      <c r="AP42" s="88"/>
+      <c r="AQ42" s="88"/>
       <c r="AR42" s="12"/>
       <c r="AS42" s="12"/>
       <c r="AT42" s="12"/>
@@ -4733,11 +4857,11 @@
       <c r="BI42" s="12"/>
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="95"/>
+      <c r="BL42" s="112"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="10"/>
@@ -4753,14 +4877,14 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="102"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="118"/>
+      <c r="R43" s="118"/>
+      <c r="S43" s="118"/>
+      <c r="T43" s="118"/>
+      <c r="U43" s="118"/>
+      <c r="V43" s="118"/>
+      <c r="W43" s="119"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4781,10 +4905,10 @@
       <c r="AO43" s="12"/>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="11"/>
-      <c r="AR43" s="92"/>
-      <c r="AS43" s="92"/>
-      <c r="AT43" s="92"/>
-      <c r="AU43" s="93"/>
+      <c r="AR43" s="88"/>
+      <c r="AS43" s="88"/>
+      <c r="AT43" s="88"/>
+      <c r="AU43" s="89"/>
       <c r="AV43" s="11"/>
       <c r="AW43" s="12"/>
       <c r="AX43" s="12"/>
@@ -4801,13 +4925,15 @@
       <c r="BI43" s="12"/>
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="95"/>
+      <c r="BL43" s="112"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
@@ -4821,14 +4947,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="102"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="118"/>
+      <c r="U44" s="118"/>
+      <c r="V44" s="118"/>
+      <c r="W44" s="119"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -4843,19 +4969,20 @@
       <c r="AI44" s="13"/>
       <c r="AJ44" s="11"/>
       <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
+      <c r="AL44" s="104" t="s">
+        <v>69</v>
+      </c>
       <c r="AM44" s="12"/>
-      <c r="AN44" s="80"/>
-      <c r="AO44" s="40"/>
-      <c r="AP44" s="80"/>
-      <c r="AQ44" s="127"/>
-      <c r="AR44" s="114"/>
-      <c r="AS44" s="114"/>
-      <c r="AT44" s="114"/>
-      <c r="AU44" s="117"/>
-      <c r="AV44" s="126"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="13"/>
       <c r="AW44" s="12"/>
-      <c r="AX44" s="125"/>
+      <c r="AX44" s="11"/>
       <c r="AY44" s="12"/>
       <c r="AZ44" s="11"/>
       <c r="BA44" s="12"/>
@@ -4869,13 +4996,15 @@
       <c r="BI44" s="12"/>
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="95"/>
+      <c r="BL44" s="112"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
@@ -4889,14 +5018,14 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="100"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="102"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="118"/>
+      <c r="S45" s="118"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="118"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="119"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -4911,18 +5040,21 @@
       <c r="AI45" s="13"/>
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="116"/>
-      <c r="AO45" s="114"/>
-      <c r="AP45" s="114"/>
-      <c r="AQ45" s="114"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="13"/>
+      <c r="AL45" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="37"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="39"/>
+      <c r="AV45" s="11"/>
       <c r="AW45" s="12"/>
-      <c r="AX45" s="11"/>
+      <c r="AX45" s="12"/>
       <c r="AY45" s="12"/>
       <c r="AZ45" s="11"/>
       <c r="BA45" s="12"/>
@@ -4936,11 +5068,11 @@
       <c r="BI45" s="12"/>
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="95"/>
+      <c r="BL45" s="112"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="10"/>
@@ -4956,14 +5088,14 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="102"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="119"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -4978,18 +5110,18 @@
       <c r="AI46" s="13"/>
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
-      <c r="AL46" s="57"/>
-      <c r="AM46" s="57"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
       <c r="AN46" s="11"/>
       <c r="AO46" s="12"/>
       <c r="AP46" s="12"/>
       <c r="AQ46" s="12"/>
-      <c r="AR46" s="114"/>
-      <c r="AS46" s="114"/>
-      <c r="AT46" s="40"/>
-      <c r="AU46" s="42"/>
-      <c r="AV46" s="11"/>
-      <c r="AW46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="37"/>
       <c r="AX46" s="12"/>
       <c r="AY46" s="12"/>
       <c r="AZ46" s="11"/>
@@ -5004,11 +5136,11 @@
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="95"/>
+      <c r="BL46" s="112"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="10"/>
@@ -5024,14 +5156,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="102"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="119"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -5056,8 +5188,8 @@
       <c r="AS47" s="12"/>
       <c r="AT47" s="12"/>
       <c r="AU47" s="13"/>
-      <c r="AV47" s="43"/>
-      <c r="AW47" s="40"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="30"/>
       <c r="AX47" s="12"/>
       <c r="AY47" s="12"/>
       <c r="AZ47" s="11"/>
@@ -5072,11 +5204,11 @@
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="95"/>
+      <c r="BL47" s="112"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="10"/>
@@ -5092,14 +5224,14 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="102"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
+      <c r="V48" s="118"/>
+      <c r="W48" s="119"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -5124,8 +5256,8 @@
       <c r="AS48" s="12"/>
       <c r="AT48" s="12"/>
       <c r="AU48" s="13"/>
-      <c r="AV48" s="45"/>
-      <c r="AW48" s="33"/>
+      <c r="AV48" s="44"/>
+      <c r="AW48" s="34"/>
       <c r="AX48" s="12"/>
       <c r="AY48" s="12"/>
       <c r="AZ48" s="11"/>
@@ -5140,11 +5272,11 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="95"/>
+      <c r="BL48" s="112"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="10"/>
@@ -5160,14 +5292,14 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
-      <c r="V49" s="101"/>
-      <c r="W49" s="102"/>
+      <c r="P49" s="117"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="118"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="118"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="119"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5192,10 +5324,10 @@
       <c r="AS49" s="12"/>
       <c r="AT49" s="12"/>
       <c r="AU49" s="13"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="37"/>
-      <c r="AX49" s="12"/>
-      <c r="AY49" s="12"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
       <c r="AZ49" s="11"/>
       <c r="BA49" s="12"/>
       <c r="BB49" s="12"/>
@@ -5208,79 +5340,79 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="95"/>
+      <c r="BL49" s="112"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="101"/>
-      <c r="W50" s="102"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="12"/>
-      <c r="AE50" s="12"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="12"/>
-      <c r="AH50" s="12"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="12"/>
-      <c r="AL50" s="12"/>
-      <c r="AM50" s="12"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="12"/>
-      <c r="AP50" s="12"/>
-      <c r="AQ50" s="12"/>
-      <c r="AR50" s="12"/>
-      <c r="AS50" s="12"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="13"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="12"/>
-      <c r="AX50" s="41"/>
-      <c r="AY50" s="114"/>
-      <c r="AZ50" s="11"/>
-      <c r="BA50" s="12"/>
-      <c r="BB50" s="12"/>
-      <c r="BC50" s="12"/>
-      <c r="BD50" s="12"/>
-      <c r="BE50" s="12"/>
-      <c r="BF50" s="12"/>
-      <c r="BG50" s="13"/>
-      <c r="BH50" s="11"/>
-      <c r="BI50" s="12"/>
-      <c r="BJ50" s="12"/>
-      <c r="BK50" s="12"/>
-      <c r="BL50" s="95"/>
+      <c r="A50" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="117"/>
+      <c r="Q50" s="118"/>
+      <c r="R50" s="118"/>
+      <c r="S50" s="118"/>
+      <c r="T50" s="118"/>
+      <c r="U50" s="118"/>
+      <c r="V50" s="118"/>
+      <c r="W50" s="119"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54"/>
+      <c r="AA50" s="54"/>
+      <c r="AB50" s="53"/>
+      <c r="AC50" s="54"/>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54"/>
+      <c r="AG50" s="54"/>
+      <c r="AH50" s="54"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="53"/>
+      <c r="AK50" s="54"/>
+      <c r="AL50" s="54"/>
+      <c r="AM50" s="54"/>
+      <c r="AN50" s="53"/>
+      <c r="AO50" s="54"/>
+      <c r="AP50" s="54"/>
+      <c r="AQ50" s="54"/>
+      <c r="AR50" s="54"/>
+      <c r="AS50" s="54"/>
+      <c r="AT50" s="54"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="53"/>
+      <c r="AW50" s="54"/>
+      <c r="AX50" s="54"/>
+      <c r="AY50" s="54"/>
+      <c r="AZ50" s="53"/>
+      <c r="BA50" s="54"/>
+      <c r="BB50" s="54"/>
+      <c r="BC50" s="54"/>
+      <c r="BD50" s="54"/>
+      <c r="BE50" s="54"/>
+      <c r="BF50" s="54"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="53"/>
+      <c r="BI50" s="54"/>
+      <c r="BJ50" s="54"/>
+      <c r="BK50" s="54"/>
+      <c r="BL50" s="112"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="10"/>
@@ -5296,14 +5428,14 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="101"/>
-      <c r="V51" s="101"/>
-      <c r="W51" s="102"/>
+      <c r="P51" s="117"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="118"/>
+      <c r="S51" s="118"/>
+      <c r="T51" s="118"/>
+      <c r="U51" s="118"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="119"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5330,10 +5462,10 @@
       <c r="AU51" s="13"/>
       <c r="AV51" s="11"/>
       <c r="AW51" s="12"/>
-      <c r="AX51" s="114"/>
-      <c r="AY51" s="41"/>
-      <c r="AZ51" s="11"/>
-      <c r="BA51" s="12"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12"/>
+      <c r="AZ51" s="40"/>
+      <c r="BA51" s="37"/>
       <c r="BB51" s="12"/>
       <c r="BC51" s="12"/>
       <c r="BD51" s="12"/>
@@ -5344,79 +5476,79 @@
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="95"/>
+      <c r="BL51" s="112"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="101"/>
-      <c r="W52" s="102"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="59"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="60"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="59"/>
-      <c r="AN52" s="58"/>
-      <c r="AO52" s="59"/>
-      <c r="AP52" s="59"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="59"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="60"/>
-      <c r="AV52" s="58"/>
-      <c r="AW52" s="59"/>
-      <c r="AX52" s="59"/>
-      <c r="AY52" s="59"/>
-      <c r="AZ52" s="58"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="59"/>
-      <c r="BC52" s="59"/>
-      <c r="BD52" s="59"/>
-      <c r="BE52" s="59"/>
-      <c r="BF52" s="59"/>
-      <c r="BG52" s="60"/>
-      <c r="BH52" s="58"/>
-      <c r="BI52" s="59"/>
-      <c r="BJ52" s="59"/>
-      <c r="BK52" s="59"/>
-      <c r="BL52" s="95"/>
+      <c r="A52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="119"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="13"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="77"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="78"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="42"/>
+      <c r="BA52" s="30"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="13"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
+      <c r="BK52" s="12"/>
+      <c r="BL52" s="112"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="10"/>
@@ -5432,14 +5564,14 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
-      <c r="V53" s="101"/>
-      <c r="W53" s="102"/>
+      <c r="P53" s="117"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="119"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
@@ -5469,7 +5601,7 @@
       <c r="AX53" s="12"/>
       <c r="AY53" s="12"/>
       <c r="AZ53" s="44"/>
-      <c r="BA53" s="41"/>
+      <c r="BA53" s="34"/>
       <c r="BB53" s="12"/>
       <c r="BC53" s="12"/>
       <c r="BD53" s="12"/>
@@ -5480,11 +5612,11 @@
       <c r="BI53" s="12"/>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="95"/>
+      <c r="BL53" s="112"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="10"/>
@@ -5500,14 +5632,14 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
-      <c r="V54" s="101"/>
-      <c r="W54" s="102"/>
+      <c r="P54" s="117"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="119"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
@@ -5524,20 +5656,20 @@
       <c r="AK54" s="12"/>
       <c r="AL54" s="12"/>
       <c r="AM54" s="12"/>
-      <c r="AN54" s="83"/>
-      <c r="AO54" s="51"/>
-      <c r="AP54" s="51"/>
-      <c r="AQ54" s="51"/>
-      <c r="AR54" s="51"/>
-      <c r="AS54" s="51"/>
-      <c r="AT54" s="51"/>
-      <c r="AU54" s="84"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="13"/>
       <c r="AV54" s="11"/>
       <c r="AW54" s="12"/>
       <c r="AX54" s="12"/>
       <c r="AY54" s="12"/>
-      <c r="AZ54" s="45"/>
-      <c r="BA54" s="33"/>
+      <c r="AZ54" s="41"/>
+      <c r="BA54" s="38"/>
       <c r="BB54" s="12"/>
       <c r="BC54" s="12"/>
       <c r="BD54" s="12"/>
@@ -5548,11 +5680,11 @@
       <c r="BI54" s="12"/>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="95"/>
+      <c r="BL54" s="112"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="10"/>
@@ -5568,14 +5700,14 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
-      <c r="U55" s="101"/>
-      <c r="V55" s="101"/>
-      <c r="W55" s="102"/>
+      <c r="P55" s="117"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="119"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
@@ -5604,10 +5736,10 @@
       <c r="AW55" s="12"/>
       <c r="AX55" s="12"/>
       <c r="AY55" s="12"/>
-      <c r="AZ55" s="47"/>
-      <c r="BA55" s="37"/>
-      <c r="BB55" s="12"/>
-      <c r="BC55" s="12"/>
+      <c r="AZ55" s="11"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="30"/>
+      <c r="BC55" s="30"/>
       <c r="BD55" s="12"/>
       <c r="BE55" s="12"/>
       <c r="BF55" s="12"/>
@@ -5616,11 +5748,11 @@
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="95"/>
+      <c r="BL55" s="112"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="10"/>
@@ -5636,14 +5768,14 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="101"/>
-      <c r="W56" s="102"/>
+      <c r="P56" s="117"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="V56" s="118"/>
+      <c r="W56" s="119"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
@@ -5672,10 +5804,10 @@
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
       <c r="AY56" s="12"/>
-      <c r="AZ56" s="43"/>
-      <c r="BA56" s="40"/>
-      <c r="BB56" s="12"/>
-      <c r="BC56" s="12"/>
+      <c r="AZ56" s="11"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="34"/>
+      <c r="BC56" s="34"/>
       <c r="BD56" s="12"/>
       <c r="BE56" s="12"/>
       <c r="BF56" s="12"/>
@@ -5684,11 +5816,11 @@
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="95"/>
+      <c r="BL56" s="112"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="10"/>
@@ -5704,14 +5836,14 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="102"/>
+      <c r="P57" s="117"/>
+      <c r="Q57" s="118"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="118"/>
+      <c r="W57" s="119"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
@@ -5752,281 +5884,220 @@
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="95"/>
+      <c r="BL57" s="112"/>
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
-      <c r="U58" s="101"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="102"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="13"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="13"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="12"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="12"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="12"/>
-      <c r="BB58" s="40"/>
-      <c r="BC58" s="40"/>
-      <c r="BD58" s="12"/>
-      <c r="BE58" s="12"/>
-      <c r="BF58" s="12"/>
-      <c r="BG58" s="13"/>
-      <c r="BH58" s="11"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="12"/>
-      <c r="BK58" s="12"/>
-      <c r="BL58" s="95"/>
+      <c r="A58" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="117"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="119"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="54"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="53"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="54"/>
+      <c r="AM58" s="54"/>
+      <c r="AN58" s="53"/>
+      <c r="AO58" s="54"/>
+      <c r="AP58" s="54"/>
+      <c r="AQ58" s="54"/>
+      <c r="AR58" s="54"/>
+      <c r="AS58" s="54"/>
+      <c r="AT58" s="54"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="53"/>
+      <c r="AW58" s="54"/>
+      <c r="AX58" s="54"/>
+      <c r="AY58" s="54"/>
+      <c r="AZ58" s="53"/>
+      <c r="BA58" s="54"/>
+      <c r="BB58" s="54"/>
+      <c r="BC58" s="54"/>
+      <c r="BD58" s="54"/>
+      <c r="BE58" s="54"/>
+      <c r="BF58" s="54"/>
+      <c r="BG58" s="55"/>
+      <c r="BH58" s="53"/>
+      <c r="BI58" s="54"/>
+      <c r="BJ58" s="54"/>
+      <c r="BK58" s="54"/>
+      <c r="BL58" s="112"/>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A59" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
-      <c r="U59" s="101"/>
-      <c r="V59" s="101"/>
-      <c r="W59" s="102"/>
-      <c r="X59" s="58"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="59"/>
-      <c r="AF59" s="59"/>
-      <c r="AG59" s="59"/>
-      <c r="AH59" s="59"/>
-      <c r="AI59" s="60"/>
-      <c r="AJ59" s="58"/>
-      <c r="AK59" s="59"/>
-      <c r="AL59" s="59"/>
-      <c r="AM59" s="59"/>
-      <c r="AN59" s="58"/>
-      <c r="AO59" s="59"/>
-      <c r="AP59" s="59"/>
-      <c r="AQ59" s="59"/>
-      <c r="AR59" s="59"/>
-      <c r="AS59" s="59"/>
-      <c r="AT59" s="59"/>
-      <c r="AU59" s="60"/>
-      <c r="AV59" s="58"/>
-      <c r="AW59" s="59"/>
-      <c r="AX59" s="59"/>
-      <c r="AY59" s="59"/>
-      <c r="AZ59" s="58"/>
-      <c r="BA59" s="59"/>
-      <c r="BB59" s="59"/>
-      <c r="BC59" s="59"/>
-      <c r="BD59" s="59"/>
-      <c r="BE59" s="59"/>
-      <c r="BF59" s="59"/>
-      <c r="BG59" s="60"/>
-      <c r="BH59" s="58"/>
-      <c r="BI59" s="59"/>
-      <c r="BJ59" s="59"/>
-      <c r="BK59" s="59"/>
-      <c r="BL59" s="95"/>
+    <row r="59" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="121"/>
+      <c r="R59" s="121"/>
+      <c r="S59" s="121"/>
+      <c r="T59" s="121"/>
+      <c r="U59" s="121"/>
+      <c r="V59" s="121"/>
+      <c r="W59" s="122"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="18"/>
+      <c r="AJ59" s="16"/>
+      <c r="AK59" s="17"/>
+      <c r="AL59" s="17"/>
+      <c r="AM59" s="17"/>
+      <c r="AN59" s="16"/>
+      <c r="AO59" s="17"/>
+      <c r="AP59" s="17"/>
+      <c r="AQ59" s="17"/>
+      <c r="AR59" s="17"/>
+      <c r="AS59" s="17"/>
+      <c r="AT59" s="17"/>
+      <c r="AU59" s="18"/>
+      <c r="AV59" s="16"/>
+      <c r="AW59" s="17"/>
+      <c r="AX59" s="17"/>
+      <c r="AY59" s="17"/>
+      <c r="AZ59" s="16"/>
+      <c r="BA59" s="17"/>
+      <c r="BB59" s="17"/>
+      <c r="BC59" s="17"/>
+      <c r="BD59" s="47"/>
+      <c r="BE59" s="47"/>
+      <c r="BF59" s="47"/>
+      <c r="BG59" s="48"/>
+      <c r="BH59" s="49"/>
+      <c r="BI59" s="47"/>
+      <c r="BJ59" s="47"/>
+      <c r="BK59" s="47"/>
+      <c r="BL59" s="112"/>
     </row>
-    <row r="60" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="104"/>
-      <c r="R60" s="104"/>
-      <c r="S60" s="104"/>
-      <c r="T60" s="104"/>
-      <c r="U60" s="104"/>
-      <c r="V60" s="104"/>
-      <c r="W60" s="105"/>
-      <c r="X60" s="16"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="16"/>
-      <c r="AC60" s="17"/>
-      <c r="AD60" s="17"/>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
-      <c r="AG60" s="17"/>
-      <c r="AH60" s="17"/>
-      <c r="AI60" s="18"/>
-      <c r="AJ60" s="16"/>
-      <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
-      <c r="AM60" s="17"/>
-      <c r="AN60" s="16"/>
-      <c r="AO60" s="17"/>
-      <c r="AP60" s="17"/>
-      <c r="AQ60" s="17"/>
-      <c r="AR60" s="17"/>
-      <c r="AS60" s="17"/>
-      <c r="AT60" s="17"/>
-      <c r="AU60" s="18"/>
-      <c r="AV60" s="16"/>
-      <c r="AW60" s="17"/>
-      <c r="AX60" s="17"/>
-      <c r="AY60" s="17"/>
-      <c r="AZ60" s="16"/>
-      <c r="BA60" s="17"/>
-      <c r="BB60" s="17"/>
-      <c r="BC60" s="17"/>
-      <c r="BD60" s="52"/>
-      <c r="BE60" s="52"/>
-      <c r="BF60" s="52"/>
-      <c r="BG60" s="53"/>
-      <c r="BH60" s="54"/>
-      <c r="BI60" s="52"/>
-      <c r="BJ60" s="52"/>
-      <c r="BK60" s="52"/>
-      <c r="BL60" s="95"/>
-    </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A61" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="97"/>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97"/>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="97"/>
-      <c r="Z61" s="97"/>
-      <c r="AA61" s="97"/>
-      <c r="AB61" s="97"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
-      <c r="AE61" s="97"/>
-      <c r="AF61" s="97"/>
-      <c r="AG61" s="97"/>
-      <c r="AH61" s="97"/>
-      <c r="AI61" s="97"/>
-      <c r="AJ61" s="97"/>
-      <c r="AK61" s="97"/>
-      <c r="AL61" s="97"/>
-      <c r="AM61" s="97"/>
-      <c r="AN61" s="97"/>
-      <c r="AO61" s="97"/>
-      <c r="AP61" s="97"/>
-      <c r="AQ61" s="97"/>
-      <c r="AR61" s="97"/>
-      <c r="AS61" s="97"/>
-      <c r="AT61" s="97"/>
-      <c r="AU61" s="97"/>
-      <c r="AV61" s="97"/>
-      <c r="AW61" s="97"/>
-      <c r="AX61" s="97"/>
-      <c r="AY61" s="97"/>
-      <c r="AZ61" s="97"/>
-      <c r="BA61" s="97"/>
-      <c r="BB61" s="97"/>
-      <c r="BC61" s="97"/>
-      <c r="BD61" s="97"/>
-      <c r="BE61" s="97"/>
-      <c r="BF61" s="97"/>
-      <c r="BG61" s="97"/>
-      <c r="BH61" s="97"/>
-      <c r="BI61" s="97"/>
-      <c r="BJ61" s="97"/>
-      <c r="BK61" s="97"/>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A60" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="114"/>
+      <c r="R60" s="114"/>
+      <c r="S60" s="114"/>
+      <c r="T60" s="114"/>
+      <c r="U60" s="114"/>
+      <c r="V60" s="114"/>
+      <c r="W60" s="114"/>
+      <c r="X60" s="114"/>
+      <c r="Y60" s="114"/>
+      <c r="Z60" s="114"/>
+      <c r="AA60" s="114"/>
+      <c r="AB60" s="114"/>
+      <c r="AC60" s="114"/>
+      <c r="AD60" s="114"/>
+      <c r="AE60" s="114"/>
+      <c r="AF60" s="114"/>
+      <c r="AG60" s="114"/>
+      <c r="AH60" s="114"/>
+      <c r="AI60" s="114"/>
+      <c r="AJ60" s="114"/>
+      <c r="AK60" s="114"/>
+      <c r="AL60" s="114"/>
+      <c r="AM60" s="114"/>
+      <c r="AN60" s="114"/>
+      <c r="AO60" s="114"/>
+      <c r="AP60" s="114"/>
+      <c r="AQ60" s="114"/>
+      <c r="AR60" s="114"/>
+      <c r="AS60" s="114"/>
+      <c r="AT60" s="114"/>
+      <c r="AU60" s="114"/>
+      <c r="AV60" s="114"/>
+      <c r="AW60" s="114"/>
+      <c r="AX60" s="114"/>
+      <c r="AY60" s="114"/>
+      <c r="AZ60" s="114"/>
+      <c r="BA60" s="114"/>
+      <c r="BB60" s="114"/>
+      <c r="BC60" s="114"/>
+      <c r="BD60" s="114"/>
+      <c r="BE60" s="114"/>
+      <c r="BF60" s="114"/>
+      <c r="BG60" s="114"/>
+      <c r="BH60" s="114"/>
+      <c r="BI60" s="114"/>
+      <c r="BJ60" s="114"/>
+      <c r="BK60" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BL10:BL59"/>
+    <mergeCell ref="A60:BK60"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P13:W59"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
@@ -6042,16 +6113,9 @@
     <mergeCell ref="BD10:BG10"/>
     <mergeCell ref="AZ10:BC10"/>
     <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BL60"/>
-    <mergeCell ref="A61:BK61"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P13:W60"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="B13:B60">
+  <conditionalFormatting sqref="B13:B59">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B13)))</formula>
     </cfRule>
@@ -6077,6 +6141,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -6289,27 +6373,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6326,23 +6409,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Planning.xlsx
+++ b/documentation/Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/axelle_hertig_studentfr_ch/Documents/Travail/Informatique/Dossier de formation/5-Modules/3ème année/Formation-Générale/306/dossier/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68977E4A-874A-4A58-B488-BE9E47185C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E4D56-39DF-41D7-AA8D-48A7397E9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22530" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
   <si>
     <r>
       <t>Projet :</t>
@@ -278,9 +278,6 @@
     <t>Dév logique scoring pour Jeux 2 &amp; 3</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>Bouton reset scores</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>Préparation Web Summary</t>
   </si>
   <si>
-    <t>sprint 5</t>
-  </si>
-  <si>
     <t>Préparation démo finale + présentation</t>
   </si>
   <si>
@@ -312,6 +306,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -942,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1349,26 +1349,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1377,48 +1421,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1472,14 +1480,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1495,9 +1503,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4752976" y="2457451"/>
-          <a:ext cx="7286624" cy="8267699"/>
+        <a:xfrm flipH="1">
+          <a:off x="4524375" y="2457451"/>
+          <a:ext cx="228601" cy="8267699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1538,10 +1546,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1895,10 +1899,10 @@
   <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1924,11 +1928,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2202,131 +2206,131 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="110"/>
-      <c r="BJ8" s="110"/>
-      <c r="BK8" s="110"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="121"/>
+      <c r="AH8" s="121"/>
+      <c r="AI8" s="121"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="121"/>
+      <c r="AL8" s="121"/>
+      <c r="AM8" s="121"/>
+      <c r="AN8" s="121"/>
+      <c r="AO8" s="121"/>
+      <c r="AP8" s="121"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
+      <c r="AX8" s="121"/>
+      <c r="AY8" s="121"/>
+      <c r="AZ8" s="121"/>
+      <c r="BA8" s="121"/>
+      <c r="BB8" s="121"/>
+      <c r="BC8" s="121"/>
+      <c r="BD8" s="121"/>
+      <c r="BE8" s="121"/>
+      <c r="BF8" s="121"/>
+      <c r="BG8" s="121"/>
+      <c r="BH8" s="121"/>
+      <c r="BI8" s="121"/>
+      <c r="BJ8" s="121"/>
+      <c r="BK8" s="121"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="111"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="111"/>
-      <c r="BI9" s="111"/>
-      <c r="BJ9" s="111"/>
-      <c r="BK9" s="111"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="122"/>
+      <c r="AP9" s="122"/>
+      <c r="AQ9" s="122"/>
+      <c r="AR9" s="122"/>
+      <c r="AS9" s="122"/>
+      <c r="AT9" s="122"/>
+      <c r="AU9" s="122"/>
+      <c r="AV9" s="122"/>
+      <c r="AW9" s="122"/>
+      <c r="AX9" s="122"/>
+      <c r="AY9" s="122"/>
+      <c r="AZ9" s="122"/>
+      <c r="BA9" s="122"/>
+      <c r="BB9" s="122"/>
+      <c r="BC9" s="122"/>
+      <c r="BD9" s="122"/>
+      <c r="BE9" s="122"/>
+      <c r="BF9" s="122"/>
+      <c r="BG9" s="122"/>
+      <c r="BH9" s="122"/>
+      <c r="BI9" s="122"/>
+      <c r="BJ9" s="122"/>
+      <c r="BK9" s="122"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="108" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2335,102 +2339,102 @@
       <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108">
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118">
         <v>45992</v>
       </c>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="106" t="s">
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="106" t="s">
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="108">
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="118">
         <v>45999</v>
       </c>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="106" t="s">
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="106" t="s">
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="108">
+      <c r="AC10" s="117"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="118">
         <v>46006</v>
       </c>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="106" t="s">
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="107"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="106" t="s">
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="107"/>
-      <c r="AP10" s="107"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="108">
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="118">
         <v>46027</v>
       </c>
-      <c r="AS10" s="108"/>
-      <c r="AT10" s="108"/>
-      <c r="AU10" s="109"/>
-      <c r="AV10" s="106" t="s">
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="118"/>
+      <c r="AU10" s="119"/>
+      <c r="AV10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="AW10" s="107"/>
-      <c r="AX10" s="107"/>
-      <c r="AY10" s="107"/>
-      <c r="AZ10" s="106" t="s">
+      <c r="AW10" s="117"/>
+      <c r="AX10" s="117"/>
+      <c r="AY10" s="117"/>
+      <c r="AZ10" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="107"/>
-      <c r="BB10" s="107"/>
-      <c r="BC10" s="107"/>
-      <c r="BD10" s="108">
+      <c r="BA10" s="117"/>
+      <c r="BB10" s="117"/>
+      <c r="BC10" s="117"/>
+      <c r="BD10" s="118">
         <v>46034</v>
       </c>
-      <c r="BE10" s="108"/>
-      <c r="BF10" s="108"/>
-      <c r="BG10" s="109"/>
-      <c r="BH10" s="106" t="s">
+      <c r="BE10" s="118"/>
+      <c r="BF10" s="118"/>
+      <c r="BG10" s="119"/>
+      <c r="BH10" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="107"/>
-      <c r="BJ10" s="107"/>
-      <c r="BK10" s="107"/>
-      <c r="BL10" s="112" t="s">
+      <c r="BI10" s="117"/>
+      <c r="BJ10" s="117"/>
+      <c r="BK10" s="117"/>
+      <c r="BL10" s="105" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
@@ -2617,11 +2621,11 @@
       <c r="BK11" s="66">
         <v>4</v>
       </c>
-      <c r="BL11" s="112"/>
+      <c r="BL11" s="105"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
@@ -2685,7 +2689,7 @@
       <c r="BI12" s="65"/>
       <c r="BJ12" s="65"/>
       <c r="BK12" s="65"/>
-      <c r="BL12" s="113"/>
+      <c r="BL12" s="106"/>
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60" t="s">
@@ -2717,16 +2721,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="117" t="s">
+      <c r="P13" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="119"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="112"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2767,7 +2771,7 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-      <c r="BL13" s="112"/>
+      <c r="BL13" s="105"/>
     </row>
     <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2793,14 +2797,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="119"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="112"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -2841,7 +2845,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="112"/>
+      <c r="BL14" s="105"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2871,14 +2875,14 @@
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="119"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="112"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2919,7 +2923,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
-      <c r="BL15" s="112"/>
+      <c r="BL15" s="105"/>
     </row>
     <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2945,14 +2949,14 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="119"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="112"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -2993,7 +2997,7 @@
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="112"/>
+      <c r="BL16" s="105"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3017,14 +3021,14 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="119"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="112"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -3065,7 +3069,7 @@
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="112"/>
+      <c r="BL17" s="105"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3089,14 +3093,14 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="119"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="112"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -3137,7 +3141,7 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="112"/>
+      <c r="BL18" s="105"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -3161,14 +3165,14 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="119"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="112"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -3209,7 +3213,7 @@
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="112"/>
+      <c r="BL19" s="105"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3231,15 +3235,17 @@
       <c r="M20" s="34"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="119"/>
-      <c r="X20" s="11"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="123" t="s">
+        <v>20</v>
+      </c>
       <c r="Y20" s="12" t="s">
         <v>20</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="112"/>
+      <c r="BL20" s="105"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3303,18 +3309,20 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="119"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="112"/>
       <c r="X21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y21" s="12"/>
+      <c r="Y21" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
@@ -3353,7 +3361,7 @@
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="112"/>
+      <c r="BL21" s="105"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3375,14 +3383,14 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="119"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="112"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
@@ -3423,7 +3431,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="112"/>
+      <c r="BL22" s="105"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3447,14 +3455,14 @@
         <v>20</v>
       </c>
       <c r="O23" s="12"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="119"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="112"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -3495,7 +3503,7 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="112"/>
+      <c r="BL23" s="105"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -3521,14 +3529,14 @@
       <c r="O24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="119"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="112"/>
       <c r="X24" s="11" t="s">
         <v>20</v>
       </c>
@@ -3571,7 +3579,7 @@
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="112"/>
+      <c r="BL24" s="105"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3593,18 +3601,20 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="119"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="112"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AB25" s="11"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="12"/>
@@ -3641,11 +3651,11 @@
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="112"/>
+      <c r="BL25" s="105"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B26" s="57"/>
       <c r="C26" s="10"/>
@@ -3661,14 +3671,14 @@
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="119"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="112"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
@@ -3709,7 +3719,7 @@
       <c r="BI26" s="54"/>
       <c r="BJ26" s="54"/>
       <c r="BK26" s="54"/>
-      <c r="BL26" s="112"/>
+      <c r="BL26" s="105"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -3731,19 +3741,21 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="119"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="112"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="11"/>
+      <c r="AB27" s="123" t="s">
+        <v>20</v>
+      </c>
       <c r="AC27" s="12" t="s">
         <v>20</v>
       </c>
@@ -3781,7 +3793,7 @@
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="112"/>
+      <c r="BL27" s="105"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -3803,25 +3815,27 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="119"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="112"/>
       <c r="X28" s="45"/>
       <c r="Y28" s="91"/>
       <c r="Z28" s="91"/>
       <c r="AA28" s="91"/>
       <c r="AB28" s="11"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AC28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD28" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE28" s="104"/>
+      <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12"/>
       <c r="AI28" s="13"/>
@@ -3853,7 +3867,7 @@
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="112"/>
+      <c r="BL28" s="105"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -3875,14 +3889,14 @@
       <c r="M29" s="46"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="119"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="112"/>
       <c r="X29" s="79"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -3890,9 +3904,15 @@
       <c r="AB29" s="44"/>
       <c r="AC29" s="34"/>
       <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="AE29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG29" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AH29" s="12" t="s">
         <v>20</v>
       </c>
@@ -3925,7 +3945,7 @@
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="112"/>
+      <c r="BL29" s="105"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -3947,14 +3967,14 @@
       <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="119"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="112"/>
       <c r="X30" s="79"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -3965,7 +3985,9 @@
       <c r="AE30" s="12"/>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
-      <c r="AH30" s="12"/>
+      <c r="AH30" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AI30" s="13" t="s">
         <v>20</v>
       </c>
@@ -3997,7 +4019,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="112"/>
+      <c r="BL30" s="105"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
@@ -4019,22 +4041,26 @@
       <c r="M31" s="46"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="119"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="112"/>
       <c r="X31" s="84"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="34"/>
       <c r="AA31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="12"/>
+      <c r="AB31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
@@ -4069,7 +4095,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="112"/>
+      <c r="BL31" s="105"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
@@ -4091,14 +4117,14 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="119"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="112"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -4107,8 +4133,12 @@
       <c r="AC32" s="12"/>
       <c r="AD32" s="37"/>
       <c r="AE32" s="37"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="12"/>
+      <c r="AF32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG32" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="11"/>
@@ -4139,7 +4169,7 @@
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
-      <c r="BL32" s="112"/>
+      <c r="BL32" s="105"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -4161,32 +4191,42 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="119"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="112"/>
       <c r="X33" s="41"/>
-      <c r="Y33" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
       <c r="AB33" s="41"/>
       <c r="AC33" s="38"/>
       <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
+      <c r="AE33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AG33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="38"/>
+      <c r="AH33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI33" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ33" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AL33" s="12"/>
       <c r="AM33" s="12"/>
       <c r="AN33" s="11"/>
@@ -4213,7 +4253,7 @@
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
       <c r="BK33" s="54"/>
-      <c r="BL33" s="112"/>
+      <c r="BL33" s="105"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -4235,14 +4275,14 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="119"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="112"/>
       <c r="X34" s="80"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="77"/>
@@ -4285,7 +4325,7 @@
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="112"/>
+      <c r="BL34" s="105"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -4307,14 +4347,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="119"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="112"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="81"/>
       <c r="Z35" s="81"/>
@@ -4357,7 +4397,7 @@
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="112"/>
+      <c r="BL35" s="105"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -4379,14 +4419,14 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="119"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="112"/>
       <c r="X36" s="82"/>
       <c r="Y36" s="83"/>
       <c r="Z36" s="83"/>
@@ -4429,7 +4469,7 @@
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="112"/>
+      <c r="BL36" s="105"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -4451,14 +4491,14 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="119"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="112"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4501,7 +4541,7 @@
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="112"/>
+      <c r="BL37" s="105"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -4523,14 +4563,14 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="119"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+      <c r="V38" s="111"/>
+      <c r="W38" s="112"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4573,7 +4613,7 @@
       <c r="BI38" s="12"/>
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="112"/>
+      <c r="BL38" s="105"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
@@ -4595,14 +4635,14 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="118"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="119"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="112"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4645,7 +4685,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="112"/>
+      <c r="BL39" s="105"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -4667,14 +4707,14 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="119"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="112"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4691,7 +4731,7 @@
       <c r="AK40" s="12"/>
       <c r="AL40" s="35"/>
       <c r="AM40" s="103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AN40" s="11"/>
       <c r="AO40" s="12"/>
@@ -4717,11 +4757,11 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
       <c r="BK40" s="54"/>
-      <c r="BL40" s="112"/>
+      <c r="BL40" s="105"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B41" s="57"/>
       <c r="C41" s="75"/>
@@ -4737,14 +4777,14 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="119"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="111"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="112"/>
       <c r="X41" s="53"/>
       <c r="Y41" s="54"/>
       <c r="Z41" s="54"/>
@@ -4785,7 +4825,7 @@
       <c r="BI41" s="54"/>
       <c r="BJ41" s="54"/>
       <c r="BK41" s="54"/>
-      <c r="BL41" s="112"/>
+      <c r="BL41" s="105"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
@@ -4807,14 +4847,14 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="119"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
+      <c r="U42" s="111"/>
+      <c r="V42" s="111"/>
+      <c r="W42" s="112"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4829,7 +4869,7 @@
       <c r="AI42" s="13"/>
       <c r="AJ42" s="11"/>
       <c r="AK42" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AL42" s="12"/>
       <c r="AM42" s="12"/>
@@ -4857,7 +4897,7 @@
       <c r="BI42" s="12"/>
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="112"/>
+      <c r="BL42" s="105"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
@@ -4877,14 +4917,14 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="119"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="112"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4902,7 +4942,9 @@
       <c r="AL43" s="12"/>
       <c r="AM43" s="12"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="12"/>
+      <c r="AO43" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AP43" s="3"/>
       <c r="AQ43" s="11"/>
       <c r="AR43" s="88"/>
@@ -4925,7 +4967,7 @@
       <c r="BI43" s="12"/>
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="112"/>
+      <c r="BL43" s="105"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -4947,14 +4989,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-      <c r="U44" s="118"/>
-      <c r="V44" s="118"/>
-      <c r="W44" s="119"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
+      <c r="U44" s="111"/>
+      <c r="V44" s="111"/>
+      <c r="W44" s="112"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -4970,7 +5012,7 @@
       <c r="AJ44" s="11"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AM44" s="12"/>
       <c r="AN44" s="40"/>
@@ -4996,7 +5038,7 @@
       <c r="BI44" s="12"/>
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="112"/>
+      <c r="BL44" s="105"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -5018,14 +5060,14 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="119"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="T45" s="111"/>
+      <c r="U45" s="111"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="112"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -5041,7 +5083,7 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AM45" s="52"/>
       <c r="AN45" s="11"/>
@@ -5068,7 +5110,7 @@
       <c r="BI45" s="12"/>
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="112"/>
+      <c r="BL45" s="105"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
@@ -5088,14 +5130,14 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
-      <c r="W46" s="119"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="112"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -5114,7 +5156,9 @@
       <c r="AM46" s="12"/>
       <c r="AN46" s="11"/>
       <c r="AO46" s="12"/>
-      <c r="AP46" s="12"/>
+      <c r="AP46" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AQ46" s="12"/>
       <c r="AR46" s="12"/>
       <c r="AS46" s="12"/>
@@ -5136,7 +5180,7 @@
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="112"/>
+      <c r="BL46" s="105"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
@@ -5156,14 +5200,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="119"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="112"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -5184,7 +5228,9 @@
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="12"/>
-      <c r="AR47" s="12"/>
+      <c r="AR47" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AS47" s="12"/>
       <c r="AT47" s="12"/>
       <c r="AU47" s="13"/>
@@ -5204,7 +5250,7 @@
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="112"/>
+      <c r="BL47" s="105"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
@@ -5224,14 +5270,14 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="118"/>
-      <c r="W48" s="119"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="112"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -5252,7 +5298,9 @@
       <c r="AO48" s="12"/>
       <c r="AP48" s="12"/>
       <c r="AQ48" s="12"/>
-      <c r="AR48" s="12"/>
+      <c r="AR48" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AS48" s="12"/>
       <c r="AT48" s="12"/>
       <c r="AU48" s="13"/>
@@ -5272,7 +5320,7 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="112"/>
+      <c r="BL48" s="105"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
@@ -5292,14 +5340,14 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="117"/>
-      <c r="Q49" s="118"/>
-      <c r="R49" s="118"/>
-      <c r="S49" s="118"/>
-      <c r="T49" s="118"/>
-      <c r="U49" s="118"/>
-      <c r="V49" s="118"/>
-      <c r="W49" s="119"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
+      <c r="U49" s="111"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="112"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5318,7 +5366,9 @@
       <c r="AM49" s="12"/>
       <c r="AN49" s="11"/>
       <c r="AO49" s="12"/>
-      <c r="AP49" s="12"/>
+      <c r="AP49" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AQ49" s="12"/>
       <c r="AR49" s="12"/>
       <c r="AS49" s="12"/>
@@ -5340,11 +5390,11 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="112"/>
+      <c r="BL49" s="105"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B50" s="57"/>
       <c r="C50" s="75"/>
@@ -5360,14 +5410,14 @@
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
-      <c r="P50" s="117"/>
-      <c r="Q50" s="118"/>
-      <c r="R50" s="118"/>
-      <c r="S50" s="118"/>
-      <c r="T50" s="118"/>
-      <c r="U50" s="118"/>
-      <c r="V50" s="118"/>
-      <c r="W50" s="119"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="112"/>
       <c r="X50" s="53"/>
       <c r="Y50" s="54"/>
       <c r="Z50" s="54"/>
@@ -5408,11 +5458,11 @@
       <c r="BI50" s="54"/>
       <c r="BJ50" s="54"/>
       <c r="BK50" s="54"/>
-      <c r="BL50" s="112"/>
+      <c r="BL50" s="105"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="10"/>
@@ -5428,14 +5478,14 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="117"/>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="119"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="112"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5460,8 +5510,10 @@
       <c r="AS51" s="12"/>
       <c r="AT51" s="12"/>
       <c r="AU51" s="13"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="12"/>
+      <c r="AV51" s="123"/>
+      <c r="AW51" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AX51" s="12"/>
       <c r="AY51" s="12"/>
       <c r="AZ51" s="40"/>
@@ -5476,11 +5528,11 @@
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="112"/>
+      <c r="BL51" s="105"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="10"/>
@@ -5496,14 +5548,14 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
-      <c r="P52" s="117"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="119"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="112"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -5525,7 +5577,9 @@
       <c r="AP52" s="46"/>
       <c r="AQ52" s="46"/>
       <c r="AR52" s="46"/>
-      <c r="AS52" s="46"/>
+      <c r="AS52" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AT52" s="46"/>
       <c r="AU52" s="78"/>
       <c r="AV52" s="11"/>
@@ -5544,11 +5598,11 @@
       <c r="BI52" s="12"/>
       <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="112"/>
+      <c r="BL52" s="105"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="10"/>
@@ -5564,14 +5618,14 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="117"/>
-      <c r="Q53" s="118"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="118"/>
-      <c r="W53" s="119"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="112"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
@@ -5594,7 +5648,9 @@
       <c r="AQ53" s="12"/>
       <c r="AR53" s="12"/>
       <c r="AS53" s="12"/>
-      <c r="AT53" s="12"/>
+      <c r="AT53" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AU53" s="13"/>
       <c r="AV53" s="11"/>
       <c r="AW53" s="12"/>
@@ -5612,11 +5668,11 @@
       <c r="BI53" s="12"/>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="112"/>
+      <c r="BL53" s="105"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="10"/>
@@ -5632,14 +5688,14 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="117"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-      <c r="U54" s="118"/>
-      <c r="V54" s="118"/>
-      <c r="W54" s="119"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="112"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
@@ -5663,7 +5719,9 @@
       <c r="AR54" s="12"/>
       <c r="AS54" s="12"/>
       <c r="AT54" s="12"/>
-      <c r="AU54" s="13"/>
+      <c r="AU54" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="AV54" s="11"/>
       <c r="AW54" s="12"/>
       <c r="AX54" s="12"/>
@@ -5680,11 +5738,11 @@
       <c r="BI54" s="12"/>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="112"/>
+      <c r="BL54" s="105"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="10"/>
@@ -5700,14 +5758,14 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="117"/>
-      <c r="Q55" s="118"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="118"/>
-      <c r="U55" s="118"/>
-      <c r="V55" s="118"/>
-      <c r="W55" s="119"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="112"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
@@ -5733,7 +5791,9 @@
       <c r="AT55" s="12"/>
       <c r="AU55" s="13"/>
       <c r="AV55" s="11"/>
-      <c r="AW55" s="12"/>
+      <c r="AW55" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AX55" s="12"/>
       <c r="AY55" s="12"/>
       <c r="AZ55" s="11"/>
@@ -5748,11 +5808,11 @@
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="112"/>
+      <c r="BL55" s="105"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="10"/>
@@ -5768,14 +5828,14 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="117"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="119"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="112"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
@@ -5803,7 +5863,9 @@
       <c r="AV56" s="11"/>
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
-      <c r="AY56" s="12"/>
+      <c r="AY56" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AZ56" s="11"/>
       <c r="BA56" s="12"/>
       <c r="BB56" s="34"/>
@@ -5816,11 +5878,11 @@
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="112"/>
+      <c r="BL56" s="105"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="10"/>
@@ -5836,14 +5898,14 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="117"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="119"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="112"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
@@ -5869,7 +5931,9 @@
       <c r="AT57" s="12"/>
       <c r="AU57" s="13"/>
       <c r="AV57" s="11"/>
-      <c r="AW57" s="12"/>
+      <c r="AW57" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AX57" s="12"/>
       <c r="AY57" s="12"/>
       <c r="AZ57" s="11"/>
@@ -5884,11 +5948,11 @@
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="112"/>
+      <c r="BL57" s="105"/>
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B58" s="57"/>
       <c r="C58" s="75"/>
@@ -5904,14 +5968,14 @@
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
       <c r="O58" s="54"/>
-      <c r="P58" s="117"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="119"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="112"/>
       <c r="X58" s="53"/>
       <c r="Y58" s="54"/>
       <c r="Z58" s="54"/>
@@ -5952,11 +6016,11 @@
       <c r="BI58" s="54"/>
       <c r="BJ58" s="54"/>
       <c r="BK58" s="54"/>
-      <c r="BL58" s="112"/>
+      <c r="BL58" s="105"/>
     </row>
     <row r="59" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="15"/>
@@ -5972,14 +6036,14 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="121"/>
-      <c r="R59" s="121"/>
-      <c r="S59" s="121"/>
-      <c r="T59" s="121"/>
-      <c r="U59" s="121"/>
-      <c r="V59" s="121"/>
-      <c r="W59" s="122"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="114"/>
+      <c r="R59" s="114"/>
+      <c r="S59" s="114"/>
+      <c r="T59" s="114"/>
+      <c r="U59" s="114"/>
+      <c r="V59" s="114"/>
+      <c r="W59" s="115"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
@@ -6007,7 +6071,9 @@
       <c r="AV59" s="16"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
-      <c r="AY59" s="17"/>
+      <c r="AY59" s="124" t="s">
+        <v>20</v>
+      </c>
       <c r="AZ59" s="16"/>
       <c r="BA59" s="17"/>
       <c r="BB59" s="17"/>
@@ -6020,84 +6086,77 @@
       <c r="BI59" s="47"/>
       <c r="BJ59" s="47"/>
       <c r="BK59" s="47"/>
-      <c r="BL59" s="112"/>
+      <c r="BL59" s="105"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A60" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
-      <c r="Q60" s="114"/>
-      <c r="R60" s="114"/>
-      <c r="S60" s="114"/>
-      <c r="T60" s="114"/>
-      <c r="U60" s="114"/>
-      <c r="V60" s="114"/>
-      <c r="W60" s="114"/>
-      <c r="X60" s="114"/>
-      <c r="Y60" s="114"/>
-      <c r="Z60" s="114"/>
-      <c r="AA60" s="114"/>
-      <c r="AB60" s="114"/>
-      <c r="AC60" s="114"/>
-      <c r="AD60" s="114"/>
-      <c r="AE60" s="114"/>
-      <c r="AF60" s="114"/>
-      <c r="AG60" s="114"/>
-      <c r="AH60" s="114"/>
-      <c r="AI60" s="114"/>
-      <c r="AJ60" s="114"/>
-      <c r="AK60" s="114"/>
-      <c r="AL60" s="114"/>
-      <c r="AM60" s="114"/>
-      <c r="AN60" s="114"/>
-      <c r="AO60" s="114"/>
-      <c r="AP60" s="114"/>
-      <c r="AQ60" s="114"/>
-      <c r="AR60" s="114"/>
-      <c r="AS60" s="114"/>
-      <c r="AT60" s="114"/>
-      <c r="AU60" s="114"/>
-      <c r="AV60" s="114"/>
-      <c r="AW60" s="114"/>
-      <c r="AX60" s="114"/>
-      <c r="AY60" s="114"/>
-      <c r="AZ60" s="114"/>
-      <c r="BA60" s="114"/>
-      <c r="BB60" s="114"/>
-      <c r="BC60" s="114"/>
-      <c r="BD60" s="114"/>
-      <c r="BE60" s="114"/>
-      <c r="BF60" s="114"/>
-      <c r="BG60" s="114"/>
-      <c r="BH60" s="114"/>
-      <c r="BI60" s="114"/>
-      <c r="BJ60" s="114"/>
-      <c r="BK60" s="114"/>
+      <c r="A60" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="107"/>
+      <c r="L60" s="107"/>
+      <c r="M60" s="107"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="107"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
+      <c r="U60" s="107"/>
+      <c r="V60" s="107"/>
+      <c r="W60" s="107"/>
+      <c r="X60" s="107"/>
+      <c r="Y60" s="107"/>
+      <c r="Z60" s="107"/>
+      <c r="AA60" s="107"/>
+      <c r="AB60" s="107"/>
+      <c r="AC60" s="107"/>
+      <c r="AD60" s="107"/>
+      <c r="AE60" s="107"/>
+      <c r="AF60" s="107"/>
+      <c r="AG60" s="107"/>
+      <c r="AH60" s="107"/>
+      <c r="AI60" s="107"/>
+      <c r="AJ60" s="107"/>
+      <c r="AK60" s="107"/>
+      <c r="AL60" s="107"/>
+      <c r="AM60" s="107"/>
+      <c r="AN60" s="107"/>
+      <c r="AO60" s="107"/>
+      <c r="AP60" s="107"/>
+      <c r="AQ60" s="107"/>
+      <c r="AR60" s="107"/>
+      <c r="AS60" s="107"/>
+      <c r="AT60" s="107"/>
+      <c r="AU60" s="107"/>
+      <c r="AV60" s="107"/>
+      <c r="AW60" s="107"/>
+      <c r="AX60" s="107"/>
+      <c r="AY60" s="107"/>
+      <c r="AZ60" s="107"/>
+      <c r="BA60" s="107"/>
+      <c r="BB60" s="107"/>
+      <c r="BC60" s="107"/>
+      <c r="BD60" s="107"/>
+      <c r="BE60" s="107"/>
+      <c r="BF60" s="107"/>
+      <c r="BG60" s="107"/>
+      <c r="BH60" s="107"/>
+      <c r="BI60" s="107"/>
+      <c r="BJ60" s="107"/>
+      <c r="BK60" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BL10:BL59"/>
-    <mergeCell ref="A60:BK60"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P13:W59"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
@@ -6113,6 +6172,13 @@
     <mergeCell ref="BD10:BG10"/>
     <mergeCell ref="AZ10:BC10"/>
     <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="BL10:BL59"/>
+    <mergeCell ref="A60:BK60"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P13:W59"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B13:B59">
@@ -6152,15 +6218,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -6373,6 +6430,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
@@ -6385,14 +6451,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E70815D-A53F-41E3-B87E-1E164A9F927C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6409,4 +6467,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Planning.xlsx
+++ b/documentation/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E4D56-39DF-41D7-AA8D-48A7397E9EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159B641-2459-4E93-B6AB-549266FD87E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
   <si>
     <r>
       <t>Projet :</t>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Presentation</t>
+  </si>
+  <si>
+    <t>Terminer</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1349,6 +1352,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1393,39 +1432,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1480,16 +1519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1503,16 +1542,16 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="4524375" y="2457451"/>
-          <a:ext cx="228601" cy="8267699"/>
+        <a:xfrm>
+          <a:off x="4972050" y="2457451"/>
+          <a:ext cx="8801100" cy="8172449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
             <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -1539,7 +1578,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CH" sz="1100"/>
+          <a:r>
+            <a:rPr lang="fr-CH" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1899,10 +1941,10 @@
   <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="J44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="BO54" sqref="BO54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1928,11 +1970,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2206,131 +2248,131 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="121"/>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="121"/>
-      <c r="AJ8" s="121"/>
-      <c r="AK8" s="121"/>
-      <c r="AL8" s="121"/>
-      <c r="AM8" s="121"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="121"/>
-      <c r="BA8" s="121"/>
-      <c r="BB8" s="121"/>
-      <c r="BC8" s="121"/>
-      <c r="BD8" s="121"/>
-      <c r="BE8" s="121"/>
-      <c r="BF8" s="121"/>
-      <c r="BG8" s="121"/>
-      <c r="BH8" s="121"/>
-      <c r="BI8" s="121"/>
-      <c r="BJ8" s="121"/>
-      <c r="BK8" s="121"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="112"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="112"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="112"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="112"/>
+      <c r="AQ8" s="112"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="112"/>
+      <c r="AT8" s="112"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="112"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="112"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="122"/>
-      <c r="AL9" s="122"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="122"/>
-      <c r="AP9" s="122"/>
-      <c r="AQ9" s="122"/>
-      <c r="AR9" s="122"/>
-      <c r="AS9" s="122"/>
-      <c r="AT9" s="122"/>
-      <c r="AU9" s="122"/>
-      <c r="AV9" s="122"/>
-      <c r="AW9" s="122"/>
-      <c r="AX9" s="122"/>
-      <c r="AY9" s="122"/>
-      <c r="AZ9" s="122"/>
-      <c r="BA9" s="122"/>
-      <c r="BB9" s="122"/>
-      <c r="BC9" s="122"/>
-      <c r="BD9" s="122"/>
-      <c r="BE9" s="122"/>
-      <c r="BF9" s="122"/>
-      <c r="BG9" s="122"/>
-      <c r="BH9" s="122"/>
-      <c r="BI9" s="122"/>
-      <c r="BJ9" s="122"/>
-      <c r="BK9" s="122"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="113"/>
+      <c r="AW9" s="113"/>
+      <c r="AX9" s="113"/>
+      <c r="AY9" s="113"/>
+      <c r="AZ9" s="113"/>
+      <c r="BA9" s="113"/>
+      <c r="BB9" s="113"/>
+      <c r="BC9" s="113"/>
+      <c r="BD9" s="113"/>
+      <c r="BE9" s="113"/>
+      <c r="BF9" s="113"/>
+      <c r="BG9" s="113"/>
+      <c r="BH9" s="113"/>
+      <c r="BI9" s="113"/>
+      <c r="BJ9" s="113"/>
+      <c r="BK9" s="113"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="117" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2339,102 +2381,102 @@
       <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118">
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110">
         <v>45992</v>
       </c>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="116" t="s">
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="116" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="118">
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="110">
         <v>45999</v>
       </c>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="116" t="s">
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="111"/>
+      <c r="X10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="116" t="s">
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="118">
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="110">
         <v>46006</v>
       </c>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="116" t="s">
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="116" t="s">
+      <c r="AK10" s="109"/>
+      <c r="AL10" s="109"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="118">
+      <c r="AO10" s="109"/>
+      <c r="AP10" s="109"/>
+      <c r="AQ10" s="109"/>
+      <c r="AR10" s="110">
         <v>46027</v>
       </c>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="118"/>
-      <c r="AU10" s="119"/>
-      <c r="AV10" s="116" t="s">
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AW10" s="117"/>
-      <c r="AX10" s="117"/>
-      <c r="AY10" s="117"/>
-      <c r="AZ10" s="116" t="s">
+      <c r="AW10" s="109"/>
+      <c r="AX10" s="109"/>
+      <c r="AY10" s="109"/>
+      <c r="AZ10" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="117"/>
-      <c r="BB10" s="117"/>
-      <c r="BC10" s="117"/>
-      <c r="BD10" s="118">
+      <c r="BA10" s="109"/>
+      <c r="BB10" s="109"/>
+      <c r="BC10" s="109"/>
+      <c r="BD10" s="110">
         <v>46034</v>
       </c>
-      <c r="BE10" s="118"/>
-      <c r="BF10" s="118"/>
-      <c r="BG10" s="119"/>
-      <c r="BH10" s="116" t="s">
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="111"/>
+      <c r="BH10" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="117"/>
-      <c r="BJ10" s="117"/>
-      <c r="BK10" s="117"/>
-      <c r="BL10" s="105" t="s">
+      <c r="BI10" s="109"/>
+      <c r="BJ10" s="109"/>
+      <c r="BK10" s="109"/>
+      <c r="BL10" s="114" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
+      <c r="A11" s="118"/>
       <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2663,7 @@
       <c r="BK11" s="66">
         <v>4</v>
       </c>
-      <c r="BL11" s="105"/>
+      <c r="BL11" s="114"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
@@ -2689,7 +2731,7 @@
       <c r="BI12" s="65"/>
       <c r="BJ12" s="65"/>
       <c r="BK12" s="65"/>
-      <c r="BL12" s="106"/>
+      <c r="BL12" s="115"/>
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60" t="s">
@@ -2721,16 +2763,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="110" t="s">
+      <c r="P13" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="112"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="121"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2771,9 +2813,9 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-      <c r="BL13" s="105"/>
+      <c r="BL13" s="114"/>
     </row>
-    <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -2785,7 +2827,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="125" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -2797,14 +2839,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="112"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="121"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -2845,7 +2887,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="105"/>
+      <c r="BL14" s="114"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2869,20 +2911,18 @@
       <c r="K15" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="L15" s="126"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="112"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="121"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2923,7 +2963,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
-      <c r="BL15" s="105"/>
+      <c r="BL15" s="114"/>
     </row>
     <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2949,14 +2989,14 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="112"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="121"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -2997,7 +3037,7 @@
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="105"/>
+      <c r="BL16" s="114"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3015,20 +3055,22 @@
       <c r="I17" s="33"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="112"/>
+      <c r="L17" s="126" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="121"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -3069,7 +3111,7 @@
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="105"/>
+      <c r="BL17" s="114"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3093,14 +3135,14 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="112"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="121"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -3141,7 +3183,7 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="105"/>
+      <c r="BL18" s="114"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -3165,14 +3207,14 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="112"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="121"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -3213,7 +3255,7 @@
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="105"/>
+      <c r="BL19" s="114"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3235,20 +3277,18 @@
       <c r="M20" s="34"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
@@ -3287,7 +3327,7 @@
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="105"/>
+      <c r="BL20" s="114"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3309,14 +3349,14 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="111"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="112"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="121"/>
       <c r="X21" s="11" t="s">
         <v>20</v>
       </c>
@@ -3361,7 +3401,7 @@
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="105"/>
+      <c r="BL21" s="114"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3383,18 +3423,20 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="112"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="121"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="Y22" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
@@ -3431,7 +3473,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="105"/>
+      <c r="BL22" s="114"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3450,19 +3492,19 @@
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="M23" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="111"/>
-      <c r="T23" s="111"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="112"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="121"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -3503,14 +3545,14 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="105"/>
+      <c r="BL23" s="114"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -3523,20 +3565,20 @@
       <c r="K24" s="13"/>
       <c r="L24" s="11"/>
       <c r="M24" s="12"/>
-      <c r="N24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="111"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="112"/>
+      <c r="N24" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="120"/>
+      <c r="S24" s="120"/>
+      <c r="T24" s="120"/>
+      <c r="U24" s="120"/>
+      <c r="V24" s="120"/>
+      <c r="W24" s="121"/>
       <c r="X24" s="11" t="s">
         <v>20</v>
       </c>
@@ -3579,14 +3621,14 @@
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="105"/>
+      <c r="BL24" s="114"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -3601,14 +3643,14 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="112"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
+      <c r="S25" s="120"/>
+      <c r="T25" s="120"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="120"/>
+      <c r="W25" s="121"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -3651,7 +3693,7 @@
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="105"/>
+      <c r="BL25" s="114"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
@@ -3671,14 +3713,14 @@
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="111"/>
-      <c r="S26" s="111"/>
-      <c r="T26" s="111"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="112"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="121"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
@@ -3719,7 +3761,7 @@
       <c r="BI26" s="54"/>
       <c r="BJ26" s="54"/>
       <c r="BK26" s="54"/>
-      <c r="BL26" s="105"/>
+      <c r="BL26" s="114"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -3741,24 +3783,24 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="112"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="121"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="123" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC27" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AA27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB27" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -3793,7 +3835,7 @@
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="105"/>
+      <c r="BL27" s="114"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -3815,14 +3857,14 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="112"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="120"/>
+      <c r="S28" s="120"/>
+      <c r="T28" s="120"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="120"/>
+      <c r="W28" s="121"/>
       <c r="X28" s="45"/>
       <c r="Y28" s="91"/>
       <c r="Z28" s="91"/>
@@ -3867,7 +3909,7 @@
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="105"/>
+      <c r="BL28" s="114"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -3889,33 +3931,27 @@
       <c r="M29" s="46"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="112"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="121"/>
       <c r="X29" s="79"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
+      <c r="AA29" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AB29" s="44"/>
       <c r="AC29" s="34"/>
       <c r="AD29" s="34"/>
-      <c r="AE29" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH29" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="11"/>
       <c r="AK29" s="12"/>
@@ -3945,7 +3981,7 @@
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="105"/>
+      <c r="BL29" s="114"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -3967,30 +4003,30 @@
       <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="111"/>
-      <c r="R30" s="111"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="111"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="112"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="120"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="120"/>
+      <c r="W30" s="121"/>
       <c r="X30" s="79"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="74"/>
       <c r="AC30" s="40"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
+      <c r="AD30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE30" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12"/>
-      <c r="AH30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI30" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="AH30" s="12"/>
+      <c r="AI30" s="13"/>
       <c r="AJ30" s="11"/>
       <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
@@ -4019,7 +4055,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="105"/>
+      <c r="BL30" s="114"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
@@ -4041,26 +4077,22 @@
       <c r="M31" s="46"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="112"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="120"/>
+      <c r="S31" s="120"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="120"/>
+      <c r="W31" s="121"/>
       <c r="X31" s="84"/>
       <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC31" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="Z31" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12"/>
@@ -4095,7 +4127,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="105"/>
+      <c r="BL31" s="114"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
@@ -4117,28 +4149,28 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="111"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="112"/>
+      <c r="P32" s="119"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
+      <c r="T32" s="120"/>
+      <c r="U32" s="120"/>
+      <c r="V32" s="120"/>
+      <c r="W32" s="121"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="12"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG32" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AD32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="11"/>
@@ -4169,7 +4201,7 @@
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
-      <c r="BL32" s="105"/>
+      <c r="BL32" s="114"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -4191,42 +4223,42 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="112"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
+      <c r="S33" s="120"/>
+      <c r="T33" s="120"/>
+      <c r="U33" s="120"/>
+      <c r="V33" s="120"/>
+      <c r="W33" s="121"/>
       <c r="X33" s="41"/>
       <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
+      <c r="Z33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB33" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC33" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD33" s="129" t="s">
+        <v>20</v>
+      </c>
       <c r="AE33" s="38" t="s">
         <v>20</v>
       </c>
       <c r="AF33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AG33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI33" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ33" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK33" s="38" t="s">
-        <v>20</v>
-      </c>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="38"/>
       <c r="AL33" s="12"/>
       <c r="AM33" s="12"/>
       <c r="AN33" s="11"/>
@@ -4253,7 +4285,7 @@
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
       <c r="BK33" s="54"/>
-      <c r="BL33" s="105"/>
+      <c r="BL33" s="114"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -4275,14 +4307,14 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="112"/>
+      <c r="P34" s="119"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="120"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="121"/>
       <c r="X34" s="80"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="77"/>
@@ -4325,7 +4357,7 @@
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="105"/>
+      <c r="BL34" s="114"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -4347,14 +4379,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="112"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
+      <c r="T35" s="120"/>
+      <c r="U35" s="120"/>
+      <c r="V35" s="120"/>
+      <c r="W35" s="121"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="81"/>
       <c r="Z35" s="81"/>
@@ -4397,7 +4429,7 @@
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="105"/>
+      <c r="BL35" s="114"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -4419,14 +4451,14 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="112"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="121"/>
       <c r="X36" s="82"/>
       <c r="Y36" s="83"/>
       <c r="Z36" s="83"/>
@@ -4469,7 +4501,7 @@
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="105"/>
+      <c r="BL36" s="114"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -4491,14 +4523,14 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="112"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="121"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4506,7 +4538,9 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="11"/>
       <c r="AD37" s="12"/>
-      <c r="AE37" s="12"/>
+      <c r="AE37" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AF37" s="100" t="s">
         <v>20</v>
       </c>
@@ -4541,7 +4575,7 @@
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="105"/>
+      <c r="BL37" s="114"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -4563,14 +4597,14 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
-      <c r="V38" s="111"/>
-      <c r="W38" s="112"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="120"/>
+      <c r="T38" s="120"/>
+      <c r="U38" s="120"/>
+      <c r="V38" s="120"/>
+      <c r="W38" s="121"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4579,15 +4613,15 @@
       <c r="AC38" s="12"/>
       <c r="AD38" s="12"/>
       <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
+      <c r="AF38" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AG38" s="12"/>
       <c r="AH38" s="37"/>
       <c r="AI38" s="101"/>
       <c r="AJ38" s="76"/>
       <c r="AK38" s="35"/>
-      <c r="AL38" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AL38" s="12"/>
       <c r="AM38" s="12"/>
       <c r="AN38" s="11"/>
       <c r="AO38" s="12"/>
@@ -4613,7 +4647,7 @@
       <c r="BI38" s="12"/>
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="105"/>
+      <c r="BL38" s="114"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
@@ -4635,14 +4669,14 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="112"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="120"/>
+      <c r="T39" s="120"/>
+      <c r="U39" s="120"/>
+      <c r="V39" s="120"/>
+      <c r="W39" s="121"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4651,12 +4685,12 @@
       <c r="AC39" s="12"/>
       <c r="AD39" s="12"/>
       <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
+      <c r="AF39" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AG39" s="12"/>
       <c r="AH39" s="12"/>
-      <c r="AI39" s="102" t="s">
-        <v>20</v>
-      </c>
+      <c r="AI39" s="102"/>
       <c r="AJ39" s="11"/>
       <c r="AK39" s="12"/>
       <c r="AL39" s="38"/>
@@ -4685,7 +4719,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="105"/>
+      <c r="BL39" s="114"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -4707,14 +4741,14 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="111"/>
-      <c r="S40" s="111"/>
-      <c r="T40" s="111"/>
-      <c r="U40" s="111"/>
-      <c r="V40" s="111"/>
-      <c r="W40" s="112"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="120"/>
+      <c r="W40" s="121"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4724,15 +4758,15 @@
       <c r="AD40" s="12"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="12"/>
-      <c r="AG40" s="12"/>
+      <c r="AG40" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AH40" s="12"/>
       <c r="AI40" s="102"/>
       <c r="AJ40" s="11"/>
       <c r="AK40" s="12"/>
       <c r="AL40" s="35"/>
-      <c r="AM40" s="103" t="s">
-        <v>67</v>
-      </c>
+      <c r="AM40" s="103"/>
       <c r="AN40" s="11"/>
       <c r="AO40" s="12"/>
       <c r="AP40" s="12"/>
@@ -4757,7 +4791,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
       <c r="BK40" s="54"/>
-      <c r="BL40" s="105"/>
+      <c r="BL40" s="114"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
@@ -4777,14 +4811,14 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="111"/>
-      <c r="S41" s="111"/>
-      <c r="T41" s="111"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="112"/>
+      <c r="P41" s="119"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="120"/>
+      <c r="U41" s="120"/>
+      <c r="V41" s="120"/>
+      <c r="W41" s="121"/>
       <c r="X41" s="53"/>
       <c r="Y41" s="54"/>
       <c r="Z41" s="54"/>
@@ -4825,14 +4859,14 @@
       <c r="BI41" s="54"/>
       <c r="BJ41" s="54"/>
       <c r="BK41" s="54"/>
-      <c r="BL41" s="105"/>
+      <c r="BL41" s="114"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>33</v>
+      <c r="B42" s="133" t="s">
+        <v>70</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -4847,14 +4881,14 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="110"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="111"/>
-      <c r="S42" s="111"/>
-      <c r="T42" s="111"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="112"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="120"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="120"/>
+      <c r="W42" s="121"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4865,9 +4899,15 @@
       <c r="AE42" s="12"/>
       <c r="AF42" s="12"/>
       <c r="AG42" s="12"/>
-      <c r="AH42" s="12"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="11"/>
+      <c r="AH42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ42" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="AK42" s="12" t="s">
         <v>67</v>
       </c>
@@ -4897,13 +4937,15 @@
       <c r="BI42" s="12"/>
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="105"/>
+      <c r="BL42" s="114"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
@@ -4917,14 +4959,14 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="111"/>
-      <c r="T43" s="111"/>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="112"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="121"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -4938,10 +4980,18 @@
       <c r="AH43" s="12"/>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="11"/>
-      <c r="AK43" s="12"/>
-      <c r="AL43" s="12"/>
-      <c r="AM43" s="12"/>
-      <c r="AN43" s="3"/>
+      <c r="AK43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN43" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="AO43" s="12" t="s">
         <v>20</v>
       </c>
@@ -4967,14 +5017,14 @@
       <c r="BI43" s="12"/>
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="105"/>
+      <c r="BL43" s="114"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>33</v>
+      <c r="B44" s="133" t="s">
+        <v>70</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
@@ -4989,14 +5039,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="110"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="111"/>
-      <c r="T44" s="111"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="112"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="120"/>
+      <c r="U44" s="120"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="121"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -5006,14 +5056,16 @@
       <c r="AD44" s="12"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
+      <c r="AG44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH44" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="11"/>
       <c r="AK44" s="12"/>
-      <c r="AL44" s="104" t="s">
-        <v>67</v>
-      </c>
+      <c r="AL44" s="104"/>
       <c r="AM44" s="12"/>
       <c r="AN44" s="40"/>
       <c r="AO44" s="37"/>
@@ -5038,14 +5090,14 @@
       <c r="BI44" s="12"/>
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="105"/>
+      <c r="BL44" s="114"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>33</v>
+      <c r="B45" s="133" t="s">
+        <v>70</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
@@ -5060,14 +5112,14 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
-      <c r="T45" s="111"/>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="112"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
+      <c r="S45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
+      <c r="V45" s="120"/>
+      <c r="W45" s="121"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -5078,13 +5130,15 @@
       <c r="AE45" s="12"/>
       <c r="AF45" s="12"/>
       <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="13"/>
+      <c r="AH45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI45" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="AJ45" s="11"/>
       <c r="AK45" s="12"/>
-      <c r="AL45" s="104" t="s">
-        <v>67</v>
-      </c>
+      <c r="AL45" s="104"/>
       <c r="AM45" s="52"/>
       <c r="AN45" s="11"/>
       <c r="AO45" s="12"/>
@@ -5110,13 +5164,15 @@
       <c r="BI45" s="12"/>
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="105"/>
+      <c r="BL45" s="114"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
@@ -5130,14 +5186,14 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="111"/>
-      <c r="T46" s="111"/>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="112"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="120"/>
+      <c r="V46" s="120"/>
+      <c r="W46" s="121"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -5153,12 +5209,16 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="12"/>
       <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="11"/>
-      <c r="AO46" s="12"/>
-      <c r="AP46" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AM46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO46" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP46" s="12"/>
       <c r="AQ46" s="12"/>
       <c r="AR46" s="12"/>
       <c r="AS46" s="12"/>
@@ -5180,13 +5240,15 @@
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="105"/>
+      <c r="BL46" s="114"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
@@ -5200,14 +5262,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="110"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="111"/>
-      <c r="T47" s="111"/>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="112"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
+      <c r="S47" s="120"/>
+      <c r="T47" s="120"/>
+      <c r="U47" s="120"/>
+      <c r="V47" s="120"/>
+      <c r="W47" s="121"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -5221,16 +5283,22 @@
       <c r="AH47" s="12"/>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="11"/>
-      <c r="AK47" s="12"/>
-      <c r="AL47" s="12"/>
+      <c r="AK47" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL47" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="12"/>
+      <c r="AN47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO47" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="12"/>
-      <c r="AR47" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AR47" s="12"/>
       <c r="AS47" s="12"/>
       <c r="AT47" s="12"/>
       <c r="AU47" s="13"/>
@@ -5250,13 +5318,15 @@
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="105"/>
+      <c r="BL47" s="114"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="12"/>
@@ -5270,14 +5340,14 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="110"/>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="111"/>
-      <c r="U48" s="111"/>
-      <c r="V48" s="111"/>
-      <c r="W48" s="112"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
+      <c r="U48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="121"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -5290,17 +5360,18 @@
       <c r="AG48" s="12"/>
       <c r="AH48" s="12"/>
       <c r="AI48" s="13"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="12"/>
+      <c r="AJ48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK48" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AL48" s="12"/>
-      <c r="AM48" s="12"/>
       <c r="AN48" s="11"/>
       <c r="AO48" s="12"/>
       <c r="AP48" s="12"/>
       <c r="AQ48" s="12"/>
-      <c r="AR48" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AR48" s="12"/>
       <c r="AS48" s="12"/>
       <c r="AT48" s="12"/>
       <c r="AU48" s="13"/>
@@ -5320,13 +5391,15 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="105"/>
+      <c r="BL48" s="114"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
@@ -5340,14 +5413,14 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="111"/>
-      <c r="R49" s="111"/>
-      <c r="S49" s="111"/>
-      <c r="T49" s="111"/>
-      <c r="U49" s="111"/>
-      <c r="V49" s="111"/>
-      <c r="W49" s="112"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="120"/>
+      <c r="R49" s="120"/>
+      <c r="S49" s="120"/>
+      <c r="T49" s="120"/>
+      <c r="U49" s="120"/>
+      <c r="V49" s="120"/>
+      <c r="W49" s="121"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5357,18 +5430,24 @@
       <c r="AD49" s="12"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
-      <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
+      <c r="AG49" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH49" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="11"/>
       <c r="AK49" s="12"/>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
+      <c r="AL49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM49" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AN49" s="11"/>
       <c r="AO49" s="12"/>
-      <c r="AP49" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AP49" s="12"/>
       <c r="AQ49" s="12"/>
       <c r="AR49" s="12"/>
       <c r="AS49" s="12"/>
@@ -5390,7 +5469,7 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="105"/>
+      <c r="BL49" s="114"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
@@ -5410,14 +5489,14 @@
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
-      <c r="P50" s="110"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="112"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="121"/>
       <c r="X50" s="53"/>
       <c r="Y50" s="54"/>
       <c r="Z50" s="54"/>
@@ -5458,7 +5537,7 @@
       <c r="BI50" s="54"/>
       <c r="BJ50" s="54"/>
       <c r="BK50" s="54"/>
-      <c r="BL50" s="105"/>
+      <c r="BL50" s="114"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
@@ -5478,14 +5557,14 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="110"/>
-      <c r="Q51" s="111"/>
-      <c r="R51" s="111"/>
-      <c r="S51" s="111"/>
-      <c r="T51" s="111"/>
-      <c r="U51" s="111"/>
-      <c r="V51" s="111"/>
-      <c r="W51" s="112"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="120"/>
+      <c r="R51" s="120"/>
+      <c r="S51" s="120"/>
+      <c r="T51" s="120"/>
+      <c r="U51" s="120"/>
+      <c r="V51" s="120"/>
+      <c r="W51" s="121"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5510,10 +5589,8 @@
       <c r="AS51" s="12"/>
       <c r="AT51" s="12"/>
       <c r="AU51" s="13"/>
-      <c r="AV51" s="123"/>
-      <c r="AW51" s="104" t="s">
-        <v>20</v>
-      </c>
+      <c r="AV51" s="105"/>
+      <c r="AW51" s="104"/>
       <c r="AX51" s="12"/>
       <c r="AY51" s="12"/>
       <c r="AZ51" s="40"/>
@@ -5528,13 +5605,15 @@
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="105"/>
+      <c r="BL51" s="114"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
@@ -5548,14 +5627,14 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
-      <c r="P52" s="110"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="111"/>
-      <c r="W52" s="112"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="120"/>
+      <c r="R52" s="120"/>
+      <c r="S52" s="120"/>
+      <c r="T52" s="120"/>
+      <c r="U52" s="120"/>
+      <c r="V52" s="120"/>
+      <c r="W52" s="121"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -5572,14 +5651,16 @@
       <c r="AK52" s="12"/>
       <c r="AL52" s="12"/>
       <c r="AM52" s="12"/>
-      <c r="AN52" s="77"/>
-      <c r="AO52" s="46"/>
+      <c r="AN52" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO52" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AP52" s="46"/>
       <c r="AQ52" s="46"/>
       <c r="AR52" s="46"/>
-      <c r="AS52" s="104" t="s">
-        <v>20</v>
-      </c>
+      <c r="AS52" s="104"/>
       <c r="AT52" s="46"/>
       <c r="AU52" s="78"/>
       <c r="AV52" s="11"/>
@@ -5598,13 +5679,15 @@
       <c r="BI52" s="12"/>
       <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="105"/>
+      <c r="BL52" s="114"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="12"/>
@@ -5618,14 +5701,14 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="110"/>
-      <c r="Q53" s="111"/>
-      <c r="R53" s="111"/>
-      <c r="S53" s="111"/>
-      <c r="T53" s="111"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="111"/>
-      <c r="W53" s="112"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
+      <c r="U53" s="120"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="121"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
@@ -5644,13 +5727,15 @@
       <c r="AM53" s="12"/>
       <c r="AN53" s="11"/>
       <c r="AO53" s="12"/>
-      <c r="AP53" s="12"/>
-      <c r="AQ53" s="12"/>
+      <c r="AP53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ53" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="AR53" s="12"/>
       <c r="AS53" s="12"/>
-      <c r="AT53" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AT53" s="12"/>
       <c r="AU53" s="13"/>
       <c r="AV53" s="11"/>
       <c r="AW53" s="12"/>
@@ -5668,13 +5753,15 @@
       <c r="BI53" s="12"/>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="105"/>
+      <c r="BL53" s="114"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
@@ -5688,14 +5775,14 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="110"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="111"/>
-      <c r="W54" s="112"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="120"/>
+      <c r="R54" s="120"/>
+      <c r="S54" s="120"/>
+      <c r="T54" s="120"/>
+      <c r="U54" s="120"/>
+      <c r="V54" s="120"/>
+      <c r="W54" s="121"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
@@ -5712,17 +5799,25 @@
       <c r="AK54" s="12"/>
       <c r="AL54" s="12"/>
       <c r="AM54" s="12"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="12"/>
-      <c r="AP54" s="12"/>
-      <c r="AQ54" s="12"/>
+      <c r="AN54" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO54" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP54" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ54" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AR54" s="12"/>
       <c r="AS54" s="12"/>
       <c r="AT54" s="12"/>
-      <c r="AU54" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV54" s="11"/>
+      <c r="AU54" s="13"/>
+      <c r="AV54" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="AW54" s="12"/>
       <c r="AX54" s="12"/>
       <c r="AY54" s="12"/>
@@ -5738,13 +5833,15 @@
       <c r="BI54" s="12"/>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="105"/>
+      <c r="BL54" s="114"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
@@ -5758,14 +5855,14 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="110"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="111"/>
-      <c r="S55" s="111"/>
-      <c r="T55" s="111"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="111"/>
-      <c r="W55" s="112"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="121"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
@@ -5784,16 +5881,18 @@
       <c r="AM55" s="12"/>
       <c r="AN55" s="11"/>
       <c r="AO55" s="12"/>
-      <c r="AP55" s="12"/>
-      <c r="AQ55" s="12"/>
-      <c r="AR55" s="12"/>
+      <c r="AP55" s="104"/>
+      <c r="AQ55" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR55" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="AS55" s="12"/>
       <c r="AT55" s="12"/>
       <c r="AU55" s="13"/>
       <c r="AV55" s="11"/>
-      <c r="AW55" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="AW55" s="12"/>
       <c r="AX55" s="12"/>
       <c r="AY55" s="12"/>
       <c r="AZ55" s="11"/>
@@ -5808,13 +5907,15 @@
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="105"/>
+      <c r="BL55" s="114"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
@@ -5828,14 +5929,14 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="110"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="111"/>
-      <c r="S56" s="111"/>
-      <c r="T56" s="111"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="111"/>
-      <c r="W56" s="112"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="120"/>
+      <c r="T56" s="120"/>
+      <c r="U56" s="120"/>
+      <c r="V56" s="120"/>
+      <c r="W56" s="121"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
@@ -5858,14 +5959,18 @@
       <c r="AQ56" s="12"/>
       <c r="AR56" s="12"/>
       <c r="AS56" s="12"/>
-      <c r="AT56" s="12"/>
-      <c r="AU56" s="13"/>
-      <c r="AV56" s="11"/>
+      <c r="AT56" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU56" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV56" s="105" t="s">
+        <v>20</v>
+      </c>
       <c r="AW56" s="12"/>
       <c r="AX56" s="12"/>
-      <c r="AY56" s="104" t="s">
-        <v>20</v>
-      </c>
+      <c r="AY56" s="104"/>
       <c r="AZ56" s="11"/>
       <c r="BA56" s="12"/>
       <c r="BB56" s="34"/>
@@ -5878,13 +5983,15 @@
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="105"/>
+      <c r="BL56" s="114"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="133" t="s">
+        <v>70</v>
+      </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="12"/>
@@ -5898,14 +6005,14 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
-      <c r="P57" s="110"/>
-      <c r="Q57" s="111"/>
-      <c r="R57" s="111"/>
-      <c r="S57" s="111"/>
-      <c r="T57" s="111"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="111"/>
-      <c r="W57" s="112"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
+      <c r="V57" s="120"/>
+      <c r="W57" s="121"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
@@ -5929,11 +6036,13 @@
       <c r="AR57" s="12"/>
       <c r="AS57" s="12"/>
       <c r="AT57" s="12"/>
-      <c r="AU57" s="13"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="104" t="s">
-        <v>20</v>
-      </c>
+      <c r="AU57" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV57" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW57" s="104"/>
       <c r="AX57" s="12"/>
       <c r="AY57" s="12"/>
       <c r="AZ57" s="11"/>
@@ -5948,7 +6057,7 @@
       <c r="BI57" s="12"/>
       <c r="BJ57" s="12"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="105"/>
+      <c r="BL57" s="114"/>
     </row>
     <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
@@ -5968,14 +6077,14 @@
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
       <c r="O58" s="54"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="111"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="112"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="120"/>
+      <c r="W58" s="121"/>
       <c r="X58" s="53"/>
       <c r="Y58" s="54"/>
       <c r="Z58" s="54"/>
@@ -6016,13 +6125,15 @@
       <c r="BI58" s="54"/>
       <c r="BJ58" s="54"/>
       <c r="BK58" s="54"/>
-      <c r="BL58" s="105"/>
+      <c r="BL58" s="114"/>
     </row>
     <row r="59" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
@@ -6036,14 +6147,14 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="113"/>
-      <c r="Q59" s="114"/>
-      <c r="R59" s="114"/>
-      <c r="S59" s="114"/>
-      <c r="T59" s="114"/>
-      <c r="U59" s="114"/>
-      <c r="V59" s="114"/>
-      <c r="W59" s="115"/>
+      <c r="P59" s="122"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
+      <c r="T59" s="123"/>
+      <c r="U59" s="123"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="124"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
@@ -6067,96 +6178,113 @@
       <c r="AR59" s="17"/>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
-      <c r="AU59" s="18"/>
-      <c r="AV59" s="16"/>
-      <c r="AW59" s="17"/>
-      <c r="AX59" s="17"/>
-      <c r="AY59" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ59" s="16"/>
-      <c r="BA59" s="17"/>
-      <c r="BB59" s="17"/>
-      <c r="BC59" s="17"/>
+      <c r="AU59" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW59" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX59" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY59" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ59" s="130"/>
+      <c r="BA59" s="106"/>
+      <c r="BB59" s="106"/>
+      <c r="BC59" s="106"/>
       <c r="BD59" s="47"/>
-      <c r="BE59" s="47"/>
+      <c r="BE59" s="131" t="s">
+        <v>20</v>
+      </c>
       <c r="BF59" s="47"/>
       <c r="BG59" s="48"/>
       <c r="BH59" s="49"/>
       <c r="BI59" s="47"/>
       <c r="BJ59" s="47"/>
       <c r="BK59" s="47"/>
-      <c r="BL59" s="105"/>
+      <c r="BL59" s="114"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
-      <c r="L60" s="107"/>
-      <c r="M60" s="107"/>
-      <c r="N60" s="107"/>
-      <c r="O60" s="107"/>
-      <c r="P60" s="107"/>
-      <c r="Q60" s="107"/>
-      <c r="R60" s="107"/>
-      <c r="S60" s="107"/>
-      <c r="T60" s="107"/>
-      <c r="U60" s="107"/>
-      <c r="V60" s="107"/>
-      <c r="W60" s="107"/>
-      <c r="X60" s="107"/>
-      <c r="Y60" s="107"/>
-      <c r="Z60" s="107"/>
-      <c r="AA60" s="107"/>
-      <c r="AB60" s="107"/>
-      <c r="AC60" s="107"/>
-      <c r="AD60" s="107"/>
-      <c r="AE60" s="107"/>
-      <c r="AF60" s="107"/>
-      <c r="AG60" s="107"/>
-      <c r="AH60" s="107"/>
-      <c r="AI60" s="107"/>
-      <c r="AJ60" s="107"/>
-      <c r="AK60" s="107"/>
-      <c r="AL60" s="107"/>
-      <c r="AM60" s="107"/>
-      <c r="AN60" s="107"/>
-      <c r="AO60" s="107"/>
-      <c r="AP60" s="107"/>
-      <c r="AQ60" s="107"/>
-      <c r="AR60" s="107"/>
-      <c r="AS60" s="107"/>
-      <c r="AT60" s="107"/>
-      <c r="AU60" s="107"/>
-      <c r="AV60" s="107"/>
-      <c r="AW60" s="107"/>
-      <c r="AX60" s="107"/>
-      <c r="AY60" s="107"/>
-      <c r="AZ60" s="107"/>
-      <c r="BA60" s="107"/>
-      <c r="BB60" s="107"/>
-      <c r="BC60" s="107"/>
-      <c r="BD60" s="107"/>
-      <c r="BE60" s="107"/>
-      <c r="BF60" s="107"/>
-      <c r="BG60" s="107"/>
-      <c r="BH60" s="107"/>
-      <c r="BI60" s="107"/>
-      <c r="BJ60" s="107"/>
-      <c r="BK60" s="107"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="116"/>
+      <c r="M60" s="116"/>
+      <c r="N60" s="116"/>
+      <c r="O60" s="116"/>
+      <c r="P60" s="116"/>
+      <c r="Q60" s="116"/>
+      <c r="R60" s="116"/>
+      <c r="S60" s="116"/>
+      <c r="T60" s="116"/>
+      <c r="U60" s="116"/>
+      <c r="V60" s="116"/>
+      <c r="W60" s="116"/>
+      <c r="X60" s="116"/>
+      <c r="Y60" s="116"/>
+      <c r="Z60" s="116"/>
+      <c r="AA60" s="116"/>
+      <c r="AB60" s="116"/>
+      <c r="AC60" s="116"/>
+      <c r="AD60" s="116"/>
+      <c r="AE60" s="116"/>
+      <c r="AF60" s="116"/>
+      <c r="AG60" s="116"/>
+      <c r="AH60" s="116"/>
+      <c r="AI60" s="116"/>
+      <c r="AJ60" s="116"/>
+      <c r="AK60" s="116"/>
+      <c r="AL60" s="116"/>
+      <c r="AM60" s="116"/>
+      <c r="AN60" s="116"/>
+      <c r="AO60" s="116"/>
+      <c r="AP60" s="116"/>
+      <c r="AQ60" s="116"/>
+      <c r="AR60" s="116"/>
+      <c r="AS60" s="116"/>
+      <c r="AT60" s="116"/>
+      <c r="AU60" s="116"/>
+      <c r="AV60" s="116"/>
+      <c r="AW60" s="116"/>
+      <c r="AX60" s="116"/>
+      <c r="AY60" s="116"/>
+      <c r="AZ60" s="116"/>
+      <c r="BA60" s="116"/>
+      <c r="BB60" s="116"/>
+      <c r="BC60" s="116"/>
+      <c r="BD60" s="116"/>
+      <c r="BE60" s="116"/>
+      <c r="BF60" s="116"/>
+      <c r="BG60" s="116"/>
+      <c r="BH60" s="116"/>
+      <c r="BI60" s="116"/>
+      <c r="BJ60" s="116"/>
+      <c r="BK60" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BL10:BL59"/>
+    <mergeCell ref="A60:BK60"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P13:W59"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
@@ -6172,13 +6300,6 @@
     <mergeCell ref="BD10:BG10"/>
     <mergeCell ref="AZ10:BC10"/>
     <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BL59"/>
-    <mergeCell ref="A60:BK60"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P13:W59"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B13:B59">
@@ -6207,14 +6328,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6431,21 +6550,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6470,9 +6588,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Planning.xlsx
+++ b/documentation/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159B641-2459-4E93-B6AB-549266FD87E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004031D5-F0FB-4BCB-BFB8-18242DCCDEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
   <si>
     <r>
       <t>Projet :</t>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1360,26 +1360,106 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1388,84 +1468,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1522,13 +1547,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1543,8 +1568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4972050" y="2457451"/>
-          <a:ext cx="8801100" cy="8172449"/>
+          <a:off x="4972050" y="2457452"/>
+          <a:ext cx="8753475" cy="8162924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,7 +1969,7 @@
       <pane xSplit="9" ySplit="11" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BO54" sqref="BO54"/>
+      <selection pane="bottomRight" activeCell="AY64" sqref="AY64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1970,11 +1995,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2248,131 +2273,131 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="112"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="112"/>
-      <c r="AM8" s="112"/>
-      <c r="AN8" s="112"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="112"/>
-      <c r="AQ8" s="112"/>
-      <c r="AR8" s="112"/>
-      <c r="AS8" s="112"/>
-      <c r="AT8" s="112"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="112"/>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="112"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="112"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+      <c r="AB8" s="132"/>
+      <c r="AC8" s="132"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="132"/>
+      <c r="AF8" s="132"/>
+      <c r="AG8" s="132"/>
+      <c r="AH8" s="132"/>
+      <c r="AI8" s="132"/>
+      <c r="AJ8" s="132"/>
+      <c r="AK8" s="132"/>
+      <c r="AL8" s="132"/>
+      <c r="AM8" s="132"/>
+      <c r="AN8" s="132"/>
+      <c r="AO8" s="132"/>
+      <c r="AP8" s="132"/>
+      <c r="AQ8" s="132"/>
+      <c r="AR8" s="132"/>
+      <c r="AS8" s="132"/>
+      <c r="AT8" s="132"/>
+      <c r="AU8" s="132"/>
+      <c r="AV8" s="132"/>
+      <c r="AW8" s="132"/>
+      <c r="AX8" s="132"/>
+      <c r="AY8" s="132"/>
+      <c r="AZ8" s="132"/>
+      <c r="BA8" s="132"/>
+      <c r="BB8" s="132"/>
+      <c r="BC8" s="132"/>
+      <c r="BD8" s="132"/>
+      <c r="BE8" s="132"/>
+      <c r="BF8" s="132"/>
+      <c r="BG8" s="132"/>
+      <c r="BH8" s="132"/>
+      <c r="BI8" s="132"/>
+      <c r="BJ8" s="132"/>
+      <c r="BK8" s="132"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="113"/>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="113"/>
-      <c r="AY9" s="113"/>
-      <c r="AZ9" s="113"/>
-      <c r="BA9" s="113"/>
-      <c r="BB9" s="113"/>
-      <c r="BC9" s="113"/>
-      <c r="BD9" s="113"/>
-      <c r="BE9" s="113"/>
-      <c r="BF9" s="113"/>
-      <c r="BG9" s="113"/>
-      <c r="BH9" s="113"/>
-      <c r="BI9" s="113"/>
-      <c r="BJ9" s="113"/>
-      <c r="BK9" s="113"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
+      <c r="AA9" s="133"/>
+      <c r="AB9" s="133"/>
+      <c r="AC9" s="133"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="133"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="133"/>
+      <c r="AH9" s="133"/>
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="133"/>
+      <c r="AK9" s="133"/>
+      <c r="AL9" s="133"/>
+      <c r="AM9" s="133"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
+      <c r="AS9" s="133"/>
+      <c r="AT9" s="133"/>
+      <c r="AU9" s="133"/>
+      <c r="AV9" s="133"/>
+      <c r="AW9" s="133"/>
+      <c r="AX9" s="133"/>
+      <c r="AY9" s="133"/>
+      <c r="AZ9" s="133"/>
+      <c r="BA9" s="133"/>
+      <c r="BB9" s="133"/>
+      <c r="BC9" s="133"/>
+      <c r="BD9" s="133"/>
+      <c r="BE9" s="133"/>
+      <c r="BF9" s="133"/>
+      <c r="BG9" s="133"/>
+      <c r="BH9" s="133"/>
+      <c r="BI9" s="133"/>
+      <c r="BJ9" s="133"/>
+      <c r="BK9" s="133"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="119" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2381,102 +2406,102 @@
       <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110">
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129">
         <v>45992</v>
       </c>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="108" t="s">
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="108" t="s">
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="110">
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="129">
         <v>45999</v>
       </c>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="108" t="s">
+      <c r="U10" s="129"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="108" t="s">
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="110">
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="129">
         <v>46006</v>
       </c>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="108" t="s">
+      <c r="AG10" s="129"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="130"/>
+      <c r="AJ10" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="108" t="s">
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="109"/>
-      <c r="AQ10" s="109"/>
-      <c r="AR10" s="110">
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="129">
         <v>46027</v>
       </c>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="108" t="s">
+      <c r="AS10" s="129"/>
+      <c r="AT10" s="129"/>
+      <c r="AU10" s="130"/>
+      <c r="AV10" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AW10" s="109"/>
-      <c r="AX10" s="109"/>
-      <c r="AY10" s="109"/>
-      <c r="AZ10" s="108" t="s">
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="109"/>
-      <c r="BB10" s="109"/>
-      <c r="BC10" s="109"/>
-      <c r="BD10" s="110">
+      <c r="BA10" s="128"/>
+      <c r="BB10" s="128"/>
+      <c r="BC10" s="128"/>
+      <c r="BD10" s="129">
         <v>46034</v>
       </c>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="111"/>
-      <c r="BH10" s="108" t="s">
+      <c r="BE10" s="129"/>
+      <c r="BF10" s="129"/>
+      <c r="BG10" s="130"/>
+      <c r="BH10" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="109"/>
-      <c r="BJ10" s="109"/>
-      <c r="BK10" s="109"/>
-      <c r="BL10" s="114" t="s">
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="128"/>
+      <c r="BK10" s="128"/>
+      <c r="BL10" s="116" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
@@ -2663,7 +2688,7 @@
       <c r="BK11" s="66">
         <v>4</v>
       </c>
-      <c r="BL11" s="114"/>
+      <c r="BL11" s="116"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
@@ -2731,7 +2756,7 @@
       <c r="BI12" s="65"/>
       <c r="BJ12" s="65"/>
       <c r="BK12" s="65"/>
-      <c r="BL12" s="115"/>
+      <c r="BL12" s="117"/>
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60" t="s">
@@ -2763,16 +2788,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="119" t="s">
+      <c r="P13" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="121"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="123"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2813,7 +2838,7 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-      <c r="BL13" s="114"/>
+      <c r="BL13" s="116"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -2827,7 +2852,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="125" t="s">
+      <c r="H14" s="107" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="34" t="s">
@@ -2839,14 +2864,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="119"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="123"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -2887,7 +2912,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="114"/>
+      <c r="BL14" s="116"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2911,18 +2936,18 @@
       <c r="K15" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="126"/>
+      <c r="L15" s="108"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="123"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2963,7 +2988,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
-      <c r="BL15" s="114"/>
+      <c r="BL15" s="116"/>
     </row>
     <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2989,14 +3014,14 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="123"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -3037,7 +3062,7 @@
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="114"/>
+      <c r="BL16" s="116"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3055,7 +3080,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="12"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="126" t="s">
+      <c r="L17" s="108" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="104" t="s">
@@ -3063,14 +3088,14 @@
       </c>
       <c r="N17" s="104"/>
       <c r="O17" s="104"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="121"/>
+      <c r="P17" s="121"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="123"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -3111,7 +3136,7 @@
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="114"/>
+      <c r="BL17" s="116"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3135,14 +3160,14 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="123"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -3183,7 +3208,7 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="114"/>
+      <c r="BL18" s="116"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -3207,14 +3232,14 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
+      <c r="W19" s="123"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -3255,7 +3280,7 @@
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="114"/>
+      <c r="BL19" s="116"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3277,14 +3302,14 @@
       <c r="M20" s="34"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="123"/>
       <c r="X20" s="105" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3352,7 @@
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="114"/>
+      <c r="BL20" s="116"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3349,14 +3374,14 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
+      <c r="W21" s="123"/>
       <c r="X21" s="11" t="s">
         <v>20</v>
       </c>
@@ -3401,7 +3426,7 @@
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="114"/>
+      <c r="BL21" s="116"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3423,14 +3448,14 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="123"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="104" t="s">
         <v>20</v>
@@ -3473,7 +3498,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="114"/>
+      <c r="BL22" s="116"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3492,19 +3517,19 @@
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="127" t="s">
+      <c r="M23" s="109" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
+      <c r="W23" s="123"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -3545,7 +3570,7 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="114"/>
+      <c r="BL23" s="116"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -3571,14 +3596,14 @@
       <c r="O24" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="119"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
+      <c r="W24" s="123"/>
       <c r="X24" s="11" t="s">
         <v>20</v>
       </c>
@@ -3621,7 +3646,7 @@
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="114"/>
+      <c r="BL24" s="116"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3643,14 +3668,14 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="123"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -3693,7 +3718,7 @@
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="114"/>
+      <c r="BL25" s="116"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
@@ -3713,14 +3738,14 @@
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
+      <c r="W26" s="123"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
@@ -3761,7 +3786,7 @@
       <c r="BI26" s="54"/>
       <c r="BJ26" s="54"/>
       <c r="BK26" s="54"/>
-      <c r="BL26" s="114"/>
+      <c r="BL26" s="116"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -3783,14 +3808,14 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
+      <c r="W27" s="123"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="12"/>
@@ -3835,7 +3860,7 @@
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="114"/>
+      <c r="BL27" s="116"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -3857,14 +3882,14 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="123"/>
       <c r="X28" s="45"/>
       <c r="Y28" s="91"/>
       <c r="Z28" s="91"/>
@@ -3909,7 +3934,7 @@
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="114"/>
+      <c r="BL28" s="116"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -3931,14 +3956,14 @@
       <c r="M29" s="46"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="123"/>
       <c r="X29" s="79"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -3981,7 +4006,7 @@
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="114"/>
+      <c r="BL29" s="116"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -4003,14 +4028,14 @@
       <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="123"/>
       <c r="X30" s="79"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -4055,7 +4080,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="114"/>
+      <c r="BL30" s="116"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
@@ -4077,14 +4102,14 @@
       <c r="M31" s="46"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="123"/>
       <c r="X31" s="84"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="100" t="s">
@@ -4127,7 +4152,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="114"/>
+      <c r="BL31" s="116"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
@@ -4149,14 +4174,14 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="119"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
+      <c r="W32" s="123"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -4201,7 +4226,7 @@
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
-      <c r="BL32" s="114"/>
+      <c r="BL32" s="116"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -4223,14 +4248,14 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
+      <c r="W33" s="123"/>
       <c r="X33" s="41"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38" t="s">
@@ -4239,13 +4264,13 @@
       <c r="AA33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AB33" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC33" s="129" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD33" s="129" t="s">
+      <c r="AB33" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC33" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD33" s="111" t="s">
         <v>20</v>
       </c>
       <c r="AE33" s="38" t="s">
@@ -4285,7 +4310,7 @@
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
       <c r="BK33" s="54"/>
-      <c r="BL33" s="114"/>
+      <c r="BL33" s="116"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -4307,14 +4332,14 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="123"/>
       <c r="X34" s="80"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="77"/>
@@ -4357,7 +4382,7 @@
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="114"/>
+      <c r="BL34" s="116"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -4379,14 +4404,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="123"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="81"/>
       <c r="Z35" s="81"/>
@@ -4429,7 +4454,7 @@
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="114"/>
+      <c r="BL35" s="116"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -4451,14 +4476,14 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="119"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
+      <c r="W36" s="123"/>
       <c r="X36" s="82"/>
       <c r="Y36" s="83"/>
       <c r="Z36" s="83"/>
@@ -4501,7 +4526,7 @@
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="114"/>
+      <c r="BL36" s="116"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -4523,14 +4548,14 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="123"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4575,7 +4600,7 @@
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="114"/>
+      <c r="BL37" s="116"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -4597,14 +4622,14 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="120"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="120"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="120"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
+      <c r="W38" s="123"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4647,7 +4672,7 @@
       <c r="BI38" s="12"/>
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="114"/>
+      <c r="BL38" s="116"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
@@ -4669,14 +4694,14 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="120"/>
-      <c r="R39" s="120"/>
-      <c r="S39" s="120"/>
-      <c r="T39" s="120"/>
-      <c r="U39" s="120"/>
-      <c r="V39" s="120"/>
-      <c r="W39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
+      <c r="W39" s="123"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4719,7 +4744,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="114"/>
+      <c r="BL39" s="116"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -4741,14 +4766,14 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="120"/>
-      <c r="R40" s="120"/>
-      <c r="S40" s="120"/>
-      <c r="T40" s="120"/>
-      <c r="U40" s="120"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="121"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="122"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="122"/>
+      <c r="W40" s="123"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4791,7 +4816,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
       <c r="BK40" s="54"/>
-      <c r="BL40" s="114"/>
+      <c r="BL40" s="116"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
@@ -4811,14 +4836,14 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="120"/>
-      <c r="S41" s="120"/>
-      <c r="T41" s="120"/>
-      <c r="U41" s="120"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="122"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="122"/>
+      <c r="U41" s="122"/>
+      <c r="V41" s="122"/>
+      <c r="W41" s="123"/>
       <c r="X41" s="53"/>
       <c r="Y41" s="54"/>
       <c r="Z41" s="54"/>
@@ -4859,13 +4884,13 @@
       <c r="BI41" s="54"/>
       <c r="BJ41" s="54"/>
       <c r="BK41" s="54"/>
-      <c r="BL41" s="114"/>
+      <c r="BL41" s="116"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="10"/>
@@ -4881,14 +4906,14 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="119"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="120"/>
-      <c r="S42" s="120"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="121"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="122"/>
+      <c r="R42" s="122"/>
+      <c r="S42" s="122"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="122"/>
+      <c r="V42" s="122"/>
+      <c r="W42" s="123"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4937,13 +4962,13 @@
       <c r="BI42" s="12"/>
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="114"/>
+      <c r="BL42" s="116"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="133" t="s">
+      <c r="B43" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="10"/>
@@ -4959,14 +4984,14 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="119"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="120"/>
-      <c r="S43" s="120"/>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="122"/>
+      <c r="S43" s="122"/>
+      <c r="T43" s="122"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
+      <c r="W43" s="123"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -5017,13 +5042,13 @@
       <c r="BI43" s="12"/>
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="114"/>
+      <c r="BL43" s="116"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="10"/>
@@ -5039,14 +5064,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="119"/>
-      <c r="Q44" s="120"/>
-      <c r="R44" s="120"/>
-      <c r="S44" s="120"/>
-      <c r="T44" s="120"/>
-      <c r="U44" s="120"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="122"/>
+      <c r="R44" s="122"/>
+      <c r="S44" s="122"/>
+      <c r="T44" s="122"/>
+      <c r="U44" s="122"/>
+      <c r="V44" s="122"/>
+      <c r="W44" s="123"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -5090,13 +5115,13 @@
       <c r="BI44" s="12"/>
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="114"/>
+      <c r="BL44" s="116"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C45" s="10"/>
@@ -5112,14 +5137,14 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="119"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="120"/>
-      <c r="S45" s="120"/>
-      <c r="T45" s="120"/>
-      <c r="U45" s="120"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="122"/>
+      <c r="R45" s="122"/>
+      <c r="S45" s="122"/>
+      <c r="T45" s="122"/>
+      <c r="U45" s="122"/>
+      <c r="V45" s="122"/>
+      <c r="W45" s="123"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -5164,13 +5189,13 @@
       <c r="BI45" s="12"/>
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="114"/>
+      <c r="BL45" s="116"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="133" t="s">
+      <c r="B46" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="10"/>
@@ -5186,14 +5211,14 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120"/>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="120"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="122"/>
+      <c r="R46" s="122"/>
+      <c r="S46" s="122"/>
+      <c r="T46" s="122"/>
+      <c r="U46" s="122"/>
+      <c r="V46" s="122"/>
+      <c r="W46" s="123"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -5240,13 +5265,13 @@
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="114"/>
+      <c r="BL46" s="116"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="133" t="s">
+      <c r="B47" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="10"/>
@@ -5262,14 +5287,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="122"/>
+      <c r="R47" s="122"/>
+      <c r="S47" s="122"/>
+      <c r="T47" s="122"/>
+      <c r="U47" s="122"/>
+      <c r="V47" s="122"/>
+      <c r="W47" s="123"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -5318,13 +5343,13 @@
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="114"/>
+      <c r="BL47" s="116"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="133" t="s">
+      <c r="B48" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="10"/>
@@ -5340,14 +5365,14 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="120"/>
-      <c r="R48" s="120"/>
-      <c r="S48" s="120"/>
-      <c r="T48" s="120"/>
-      <c r="U48" s="120"/>
-      <c r="V48" s="120"/>
-      <c r="W48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="122"/>
+      <c r="R48" s="122"/>
+      <c r="S48" s="122"/>
+      <c r="T48" s="122"/>
+      <c r="U48" s="122"/>
+      <c r="V48" s="122"/>
+      <c r="W48" s="123"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -5391,13 +5416,13 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="114"/>
+      <c r="BL48" s="116"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="10"/>
@@ -5413,14 +5438,14 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="120"/>
-      <c r="R49" s="120"/>
-      <c r="S49" s="120"/>
-      <c r="T49" s="120"/>
-      <c r="U49" s="120"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="122"/>
+      <c r="R49" s="122"/>
+      <c r="S49" s="122"/>
+      <c r="T49" s="122"/>
+      <c r="U49" s="122"/>
+      <c r="V49" s="122"/>
+      <c r="W49" s="123"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5469,7 +5494,7 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="114"/>
+      <c r="BL49" s="116"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
@@ -5489,14 +5514,14 @@
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="120"/>
-      <c r="S50" s="120"/>
-      <c r="T50" s="120"/>
-      <c r="U50" s="120"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="122"/>
+      <c r="S50" s="122"/>
+      <c r="T50" s="122"/>
+      <c r="U50" s="122"/>
+      <c r="V50" s="122"/>
+      <c r="W50" s="123"/>
       <c r="X50" s="53"/>
       <c r="Y50" s="54"/>
       <c r="Z50" s="54"/>
@@ -5537,7 +5562,7 @@
       <c r="BI50" s="54"/>
       <c r="BJ50" s="54"/>
       <c r="BK50" s="54"/>
-      <c r="BL50" s="114"/>
+      <c r="BL50" s="116"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
@@ -5557,14 +5582,14 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="120"/>
-      <c r="S51" s="120"/>
-      <c r="T51" s="120"/>
-      <c r="U51" s="120"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="121"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="122"/>
+      <c r="R51" s="122"/>
+      <c r="S51" s="122"/>
+      <c r="T51" s="122"/>
+      <c r="U51" s="122"/>
+      <c r="V51" s="122"/>
+      <c r="W51" s="123"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5605,13 +5630,13 @@
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="114"/>
+      <c r="BL51" s="116"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C52" s="10"/>
@@ -5627,14 +5652,14 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="120"/>
-      <c r="R52" s="120"/>
-      <c r="S52" s="120"/>
-      <c r="T52" s="120"/>
-      <c r="U52" s="120"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="121"/>
+      <c r="P52" s="121"/>
+      <c r="Q52" s="122"/>
+      <c r="R52" s="122"/>
+      <c r="S52" s="122"/>
+      <c r="T52" s="122"/>
+      <c r="U52" s="122"/>
+      <c r="V52" s="122"/>
+      <c r="W52" s="123"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -5679,13 +5704,13 @@
       <c r="BI52" s="12"/>
       <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="114"/>
+      <c r="BL52" s="116"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="133" t="s">
+      <c r="B53" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="10"/>
@@ -5701,14 +5726,14 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="120"/>
-      <c r="R53" s="120"/>
-      <c r="S53" s="120"/>
-      <c r="T53" s="120"/>
-      <c r="U53" s="120"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="121"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="122"/>
+      <c r="R53" s="122"/>
+      <c r="S53" s="122"/>
+      <c r="T53" s="122"/>
+      <c r="U53" s="122"/>
+      <c r="V53" s="122"/>
+      <c r="W53" s="123"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
@@ -5753,13 +5778,13 @@
       <c r="BI53" s="12"/>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="114"/>
+      <c r="BL53" s="116"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="133" t="s">
+      <c r="B54" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="10"/>
@@ -5775,14 +5800,14 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="120"/>
-      <c r="R54" s="120"/>
-      <c r="S54" s="120"/>
-      <c r="T54" s="120"/>
-      <c r="U54" s="120"/>
-      <c r="V54" s="120"/>
-      <c r="W54" s="121"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="122"/>
+      <c r="V54" s="122"/>
+      <c r="W54" s="123"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
@@ -5833,13 +5858,13 @@
       <c r="BI54" s="12"/>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="114"/>
+      <c r="BL54" s="116"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="133" t="s">
+      <c r="B55" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C55" s="10"/>
@@ -5855,14 +5880,14 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="121"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="122"/>
+      <c r="S55" s="122"/>
+      <c r="T55" s="122"/>
+      <c r="U55" s="122"/>
+      <c r="V55" s="122"/>
+      <c r="W55" s="123"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
@@ -5907,13 +5932,13 @@
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="114"/>
+      <c r="BL55" s="116"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="133" t="s">
+      <c r="B56" s="115" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="10"/>
@@ -5929,14 +5954,14 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="120"/>
-      <c r="T56" s="120"/>
-      <c r="U56" s="120"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="121"/>
+      <c r="P56" s="121"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="122"/>
+      <c r="S56" s="122"/>
+      <c r="T56" s="122"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="122"/>
+      <c r="W56" s="123"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
@@ -5983,149 +6008,147 @@
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="114"/>
+      <c r="BL56" s="116"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="121"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="122"/>
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="122"/>
+      <c r="V57" s="122"/>
+      <c r="W57" s="123"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="54"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="53"/>
+      <c r="AK57" s="54"/>
+      <c r="AL57" s="54"/>
+      <c r="AM57" s="54"/>
+      <c r="AN57" s="53"/>
+      <c r="AO57" s="54"/>
+      <c r="AP57" s="54"/>
+      <c r="AQ57" s="54"/>
+      <c r="AR57" s="54"/>
+      <c r="AS57" s="54"/>
+      <c r="AT57" s="54"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="53"/>
+      <c r="AW57" s="54"/>
+      <c r="AX57" s="54"/>
+      <c r="AY57" s="54"/>
+      <c r="AZ57" s="53"/>
+      <c r="BA57" s="54"/>
+      <c r="BB57" s="54"/>
+      <c r="BC57" s="54"/>
+      <c r="BD57" s="54"/>
+      <c r="BE57" s="54"/>
+      <c r="BF57" s="54"/>
+      <c r="BG57" s="55"/>
+      <c r="BH57" s="53"/>
+      <c r="BI57" s="54"/>
+      <c r="BJ57" s="54"/>
+      <c r="BK57" s="54"/>
+      <c r="BL57" s="116"/>
+    </row>
+    <row r="58" spans="1:64" s="140" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="119"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="121"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="12"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="12"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV57" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW57" s="104"/>
-      <c r="AX57" s="12"/>
-      <c r="AY57" s="12"/>
-      <c r="AZ57" s="11"/>
-      <c r="BA57" s="12"/>
-      <c r="BB57" s="37"/>
-      <c r="BC57" s="37"/>
-      <c r="BD57" s="12"/>
-      <c r="BE57" s="12"/>
-      <c r="BF57" s="12"/>
-      <c r="BG57" s="13"/>
-      <c r="BH57" s="11"/>
-      <c r="BI57" s="12"/>
-      <c r="BJ57" s="12"/>
-      <c r="BK57" s="12"/>
-      <c r="BL57" s="114"/>
-    </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A58" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="119"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
-      <c r="U58" s="120"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="121"/>
-      <c r="X58" s="53"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="53"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="54"/>
-      <c r="AI58" s="55"/>
-      <c r="AJ58" s="53"/>
-      <c r="AK58" s="54"/>
-      <c r="AL58" s="54"/>
-      <c r="AM58" s="54"/>
-      <c r="AN58" s="53"/>
-      <c r="AO58" s="54"/>
-      <c r="AP58" s="54"/>
-      <c r="AQ58" s="54"/>
-      <c r="AR58" s="54"/>
-      <c r="AS58" s="54"/>
-      <c r="AT58" s="54"/>
-      <c r="AU58" s="55"/>
-      <c r="AV58" s="53"/>
-      <c r="AW58" s="54"/>
-      <c r="AX58" s="54"/>
-      <c r="AY58" s="54"/>
-      <c r="AZ58" s="53"/>
-      <c r="BA58" s="54"/>
-      <c r="BB58" s="54"/>
-      <c r="BC58" s="54"/>
-      <c r="BD58" s="54"/>
-      <c r="BE58" s="54"/>
-      <c r="BF58" s="54"/>
-      <c r="BG58" s="55"/>
-      <c r="BH58" s="53"/>
-      <c r="BI58" s="54"/>
-      <c r="BJ58" s="54"/>
-      <c r="BK58" s="54"/>
-      <c r="BL58" s="114"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="121"/>
+      <c r="Q58" s="122"/>
+      <c r="R58" s="122"/>
+      <c r="S58" s="122"/>
+      <c r="T58" s="122"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="122"/>
+      <c r="W58" s="123"/>
+      <c r="X58" s="137"/>
+      <c r="Y58" s="138"/>
+      <c r="Z58" s="138"/>
+      <c r="AA58" s="138"/>
+      <c r="AB58" s="137"/>
+      <c r="AC58" s="138"/>
+      <c r="AD58" s="138"/>
+      <c r="AE58" s="138"/>
+      <c r="AF58" s="138"/>
+      <c r="AG58" s="138"/>
+      <c r="AH58" s="138"/>
+      <c r="AI58" s="139"/>
+      <c r="AJ58" s="137"/>
+      <c r="AK58" s="138"/>
+      <c r="AL58" s="138"/>
+      <c r="AM58" s="138"/>
+      <c r="AN58" s="137"/>
+      <c r="AO58" s="138"/>
+      <c r="AP58" s="138"/>
+      <c r="AQ58" s="138"/>
+      <c r="AR58" s="138"/>
+      <c r="AS58" s="138"/>
+      <c r="AT58" s="138"/>
+      <c r="AU58" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV58" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW58" s="138"/>
+      <c r="AX58" s="138"/>
+      <c r="AY58" s="138"/>
+      <c r="AZ58" s="137"/>
+      <c r="BA58" s="138"/>
+      <c r="BB58" s="138"/>
+      <c r="BC58" s="138"/>
+      <c r="BD58" s="138"/>
+      <c r="BE58" s="138"/>
+      <c r="BF58" s="138"/>
+      <c r="BG58" s="139"/>
+      <c r="BH58" s="137"/>
+      <c r="BI58" s="138"/>
+      <c r="BJ58" s="138"/>
+      <c r="BK58" s="138"/>
+      <c r="BL58" s="116"/>
     </row>
     <row r="59" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
@@ -6147,14 +6170,14 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="122"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="123"/>
-      <c r="S59" s="123"/>
-      <c r="T59" s="123"/>
-      <c r="U59" s="123"/>
-      <c r="V59" s="123"/>
-      <c r="W59" s="124"/>
+      <c r="P59" s="124"/>
+      <c r="Q59" s="125"/>
+      <c r="R59" s="125"/>
+      <c r="S59" s="125"/>
+      <c r="T59" s="125"/>
+      <c r="U59" s="125"/>
+      <c r="V59" s="125"/>
+      <c r="W59" s="126"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
@@ -6178,7 +6201,7 @@
       <c r="AR59" s="17"/>
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
-      <c r="AU59" s="132" t="s">
+      <c r="AU59" s="114" t="s">
         <v>20</v>
       </c>
       <c r="AV59" s="16" t="s">
@@ -6193,12 +6216,12 @@
       <c r="AY59" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AZ59" s="130"/>
+      <c r="AZ59" s="112"/>
       <c r="BA59" s="106"/>
       <c r="BB59" s="106"/>
       <c r="BC59" s="106"/>
       <c r="BD59" s="47"/>
-      <c r="BE59" s="131" t="s">
+      <c r="BE59" s="113" t="s">
         <v>20</v>
       </c>
       <c r="BF59" s="47"/>
@@ -6207,84 +6230,77 @@
       <c r="BI59" s="47"/>
       <c r="BJ59" s="47"/>
       <c r="BK59" s="47"/>
-      <c r="BL59" s="114"/>
+      <c r="BL59" s="116"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="116"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="116"/>
-      <c r="M60" s="116"/>
-      <c r="N60" s="116"/>
-      <c r="O60" s="116"/>
-      <c r="P60" s="116"/>
-      <c r="Q60" s="116"/>
-      <c r="R60" s="116"/>
-      <c r="S60" s="116"/>
-      <c r="T60" s="116"/>
-      <c r="U60" s="116"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="116"/>
-      <c r="X60" s="116"/>
-      <c r="Y60" s="116"/>
-      <c r="Z60" s="116"/>
-      <c r="AA60" s="116"/>
-      <c r="AB60" s="116"/>
-      <c r="AC60" s="116"/>
-      <c r="AD60" s="116"/>
-      <c r="AE60" s="116"/>
-      <c r="AF60" s="116"/>
-      <c r="AG60" s="116"/>
-      <c r="AH60" s="116"/>
-      <c r="AI60" s="116"/>
-      <c r="AJ60" s="116"/>
-      <c r="AK60" s="116"/>
-      <c r="AL60" s="116"/>
-      <c r="AM60" s="116"/>
-      <c r="AN60" s="116"/>
-      <c r="AO60" s="116"/>
-      <c r="AP60" s="116"/>
-      <c r="AQ60" s="116"/>
-      <c r="AR60" s="116"/>
-      <c r="AS60" s="116"/>
-      <c r="AT60" s="116"/>
-      <c r="AU60" s="116"/>
-      <c r="AV60" s="116"/>
-      <c r="AW60" s="116"/>
-      <c r="AX60" s="116"/>
-      <c r="AY60" s="116"/>
-      <c r="AZ60" s="116"/>
-      <c r="BA60" s="116"/>
-      <c r="BB60" s="116"/>
-      <c r="BC60" s="116"/>
-      <c r="BD60" s="116"/>
-      <c r="BE60" s="116"/>
-      <c r="BF60" s="116"/>
-      <c r="BG60" s="116"/>
-      <c r="BH60" s="116"/>
-      <c r="BI60" s="116"/>
-      <c r="BJ60" s="116"/>
-      <c r="BK60" s="116"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="118"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="118"/>
+      <c r="M60" s="118"/>
+      <c r="N60" s="118"/>
+      <c r="O60" s="118"/>
+      <c r="P60" s="118"/>
+      <c r="Q60" s="118"/>
+      <c r="R60" s="118"/>
+      <c r="S60" s="118"/>
+      <c r="T60" s="118"/>
+      <c r="U60" s="118"/>
+      <c r="V60" s="118"/>
+      <c r="W60" s="118"/>
+      <c r="X60" s="118"/>
+      <c r="Y60" s="118"/>
+      <c r="Z60" s="118"/>
+      <c r="AA60" s="118"/>
+      <c r="AB60" s="118"/>
+      <c r="AC60" s="118"/>
+      <c r="AD60" s="118"/>
+      <c r="AE60" s="118"/>
+      <c r="AF60" s="118"/>
+      <c r="AG60" s="118"/>
+      <c r="AH60" s="118"/>
+      <c r="AI60" s="118"/>
+      <c r="AJ60" s="118"/>
+      <c r="AK60" s="118"/>
+      <c r="AL60" s="118"/>
+      <c r="AM60" s="118"/>
+      <c r="AN60" s="118"/>
+      <c r="AO60" s="118"/>
+      <c r="AP60" s="118"/>
+      <c r="AQ60" s="118"/>
+      <c r="AR60" s="118"/>
+      <c r="AS60" s="118"/>
+      <c r="AT60" s="118"/>
+      <c r="AU60" s="118"/>
+      <c r="AV60" s="118"/>
+      <c r="AW60" s="118"/>
+      <c r="AX60" s="118"/>
+      <c r="AY60" s="118"/>
+      <c r="AZ60" s="118"/>
+      <c r="BA60" s="118"/>
+      <c r="BB60" s="118"/>
+      <c r="BC60" s="118"/>
+      <c r="BD60" s="118"/>
+      <c r="BE60" s="118"/>
+      <c r="BF60" s="118"/>
+      <c r="BG60" s="118"/>
+      <c r="BH60" s="118"/>
+      <c r="BI60" s="118"/>
+      <c r="BJ60" s="118"/>
+      <c r="BK60" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BL10:BL59"/>
-    <mergeCell ref="A60:BK60"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P13:W59"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
@@ -6300,6 +6316,13 @@
     <mergeCell ref="BD10:BG10"/>
     <mergeCell ref="AZ10:BC10"/>
     <mergeCell ref="BH10:BK10"/>
+    <mergeCell ref="BL10:BL59"/>
+    <mergeCell ref="A60:BK60"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P13:W59"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B13:B59">
@@ -6328,12 +6351,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6550,20 +6575,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6588,12 +6614,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentation/Planning.xlsx
+++ b/documentation/Planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004031D5-F0FB-4BCB-BFB8-18242DCCDEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715303B3-9812-4149-9FDA-942A9F1D345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
   <si>
     <r>
       <t>Projet :</t>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1396,6 +1396,53 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -1438,59 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1545,15 +1539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1568,8 +1562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4972050" y="2457452"/>
-          <a:ext cx="8753475" cy="8162924"/>
+          <a:off x="4972051" y="2457452"/>
+          <a:ext cx="9934574" cy="8162923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1966,10 +1960,10 @@
   <dimension ref="A1:BL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="11" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="11" topLeftCell="J56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AY64" sqref="AY64"/>
+      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1995,11 +1989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2273,131 +2267,131 @@
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="132"/>
-      <c r="AD8" s="132"/>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="132"/>
-      <c r="AJ8" s="132"/>
-      <c r="AK8" s="132"/>
-      <c r="AL8" s="132"/>
-      <c r="AM8" s="132"/>
-      <c r="AN8" s="132"/>
-      <c r="AO8" s="132"/>
-      <c r="AP8" s="132"/>
-      <c r="AQ8" s="132"/>
-      <c r="AR8" s="132"/>
-      <c r="AS8" s="132"/>
-      <c r="AT8" s="132"/>
-      <c r="AU8" s="132"/>
-      <c r="AV8" s="132"/>
-      <c r="AW8" s="132"/>
-      <c r="AX8" s="132"/>
-      <c r="AY8" s="132"/>
-      <c r="AZ8" s="132"/>
-      <c r="BA8" s="132"/>
-      <c r="BB8" s="132"/>
-      <c r="BC8" s="132"/>
-      <c r="BD8" s="132"/>
-      <c r="BE8" s="132"/>
-      <c r="BF8" s="132"/>
-      <c r="BG8" s="132"/>
-      <c r="BH8" s="132"/>
-      <c r="BI8" s="132"/>
-      <c r="BJ8" s="132"/>
-      <c r="BK8" s="132"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="126"/>
+      <c r="AL8" s="126"/>
+      <c r="AM8" s="126"/>
+      <c r="AN8" s="126"/>
+      <c r="AO8" s="126"/>
+      <c r="AP8" s="126"/>
+      <c r="AQ8" s="126"/>
+      <c r="AR8" s="126"/>
+      <c r="AS8" s="126"/>
+      <c r="AT8" s="126"/>
+      <c r="AU8" s="126"/>
+      <c r="AV8" s="126"/>
+      <c r="AW8" s="126"/>
+      <c r="AX8" s="126"/>
+      <c r="AY8" s="126"/>
+      <c r="AZ8" s="126"/>
+      <c r="BA8" s="126"/>
+      <c r="BB8" s="126"/>
+      <c r="BC8" s="126"/>
+      <c r="BD8" s="126"/>
+      <c r="BE8" s="126"/>
+      <c r="BF8" s="126"/>
+      <c r="BG8" s="126"/>
+      <c r="BH8" s="126"/>
+      <c r="BI8" s="126"/>
+      <c r="BJ8" s="126"/>
+      <c r="BK8" s="126"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="133"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="133"/>
-      <c r="AG9" s="133"/>
-      <c r="AH9" s="133"/>
-      <c r="AI9" s="133"/>
-      <c r="AJ9" s="133"/>
-      <c r="AK9" s="133"/>
-      <c r="AL9" s="133"/>
-      <c r="AM9" s="133"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="133"/>
-      <c r="AR9" s="133"/>
-      <c r="AS9" s="133"/>
-      <c r="AT9" s="133"/>
-      <c r="AU9" s="133"/>
-      <c r="AV9" s="133"/>
-      <c r="AW9" s="133"/>
-      <c r="AX9" s="133"/>
-      <c r="AY9" s="133"/>
-      <c r="AZ9" s="133"/>
-      <c r="BA9" s="133"/>
-      <c r="BB9" s="133"/>
-      <c r="BC9" s="133"/>
-      <c r="BD9" s="133"/>
-      <c r="BE9" s="133"/>
-      <c r="BF9" s="133"/>
-      <c r="BG9" s="133"/>
-      <c r="BH9" s="133"/>
-      <c r="BI9" s="133"/>
-      <c r="BJ9" s="133"/>
-      <c r="BK9" s="133"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+      <c r="AI9" s="127"/>
+      <c r="AJ9" s="127"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="127"/>
+      <c r="AO9" s="127"/>
+      <c r="AP9" s="127"/>
+      <c r="AQ9" s="127"/>
+      <c r="AR9" s="127"/>
+      <c r="AS9" s="127"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="127"/>
+      <c r="AX9" s="127"/>
+      <c r="AY9" s="127"/>
+      <c r="AZ9" s="127"/>
+      <c r="BA9" s="127"/>
+      <c r="BB9" s="127"/>
+      <c r="BC9" s="127"/>
+      <c r="BD9" s="127"/>
+      <c r="BE9" s="127"/>
+      <c r="BF9" s="127"/>
+      <c r="BG9" s="127"/>
+      <c r="BH9" s="127"/>
+      <c r="BI9" s="127"/>
+      <c r="BJ9" s="127"/>
+      <c r="BK9" s="127"/>
     </row>
     <row r="10" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="131" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2406,102 +2400,102 @@
       <c r="C10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129">
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="124">
         <v>45992</v>
       </c>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="127" t="s">
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="127" t="s">
+      <c r="M10" s="123"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="129">
+      <c r="Q10" s="123"/>
+      <c r="R10" s="123"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="124">
         <v>45999</v>
       </c>
-      <c r="U10" s="129"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="127" t="s">
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="127" t="s">
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129">
+      <c r="AC10" s="123"/>
+      <c r="AD10" s="123"/>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="124">
         <v>46006</v>
       </c>
-      <c r="AG10" s="129"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="127" t="s">
+      <c r="AG10" s="124"/>
+      <c r="AH10" s="124"/>
+      <c r="AI10" s="125"/>
+      <c r="AJ10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="127" t="s">
+      <c r="AK10" s="123"/>
+      <c r="AL10" s="123"/>
+      <c r="AM10" s="123"/>
+      <c r="AN10" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="129">
+      <c r="AO10" s="123"/>
+      <c r="AP10" s="123"/>
+      <c r="AQ10" s="123"/>
+      <c r="AR10" s="124">
         <v>46027</v>
       </c>
-      <c r="AS10" s="129"/>
-      <c r="AT10" s="129"/>
-      <c r="AU10" s="130"/>
-      <c r="AV10" s="127" t="s">
+      <c r="AS10" s="124"/>
+      <c r="AT10" s="124"/>
+      <c r="AU10" s="125"/>
+      <c r="AV10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="127" t="s">
+      <c r="AW10" s="123"/>
+      <c r="AX10" s="123"/>
+      <c r="AY10" s="123"/>
+      <c r="AZ10" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="129">
+      <c r="BA10" s="123"/>
+      <c r="BB10" s="123"/>
+      <c r="BC10" s="123"/>
+      <c r="BD10" s="124">
         <v>46034</v>
       </c>
-      <c r="BE10" s="129"/>
-      <c r="BF10" s="129"/>
-      <c r="BG10" s="130"/>
-      <c r="BH10" s="127" t="s">
+      <c r="BE10" s="124"/>
+      <c r="BF10" s="124"/>
+      <c r="BG10" s="125"/>
+      <c r="BH10" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="128"/>
-      <c r="BK10" s="128"/>
-      <c r="BL10" s="116" t="s">
+      <c r="BI10" s="123"/>
+      <c r="BJ10" s="123"/>
+      <c r="BK10" s="123"/>
+      <c r="BL10" s="128" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
@@ -2688,7 +2682,7 @@
       <c r="BK11" s="66">
         <v>4</v>
       </c>
-      <c r="BL11" s="116"/>
+      <c r="BL11" s="128"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
@@ -2756,7 +2750,7 @@
       <c r="BI12" s="65"/>
       <c r="BJ12" s="65"/>
       <c r="BK12" s="65"/>
-      <c r="BL12" s="117"/>
+      <c r="BL12" s="129"/>
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="60" t="s">
@@ -2788,16 +2782,16 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="121" t="s">
+      <c r="P13" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="122"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="123"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="134"/>
+      <c r="W13" s="135"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
@@ -2838,7 +2832,7 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-      <c r="BL13" s="116"/>
+      <c r="BL13" s="128"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -2864,14 +2858,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="123"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="134"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="134"/>
+      <c r="W14" s="135"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -2912,7 +2906,7 @@
       <c r="BI14" s="12"/>
       <c r="BJ14" s="12"/>
       <c r="BK14" s="12"/>
-      <c r="BL14" s="116"/>
+      <c r="BL14" s="128"/>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -2940,14 +2934,14 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="123"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="134"/>
+      <c r="S15" s="134"/>
+      <c r="T15" s="134"/>
+      <c r="U15" s="134"/>
+      <c r="V15" s="134"/>
+      <c r="W15" s="135"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
@@ -2988,7 +2982,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
       <c r="BK15" s="12"/>
-      <c r="BL15" s="116"/>
+      <c r="BL15" s="128"/>
     </row>
     <row r="16" spans="1:64" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -3014,14 +3008,14 @@
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="122"/>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="123"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="135"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -3062,7 +3056,7 @@
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="116"/>
+      <c r="BL16" s="128"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
@@ -3088,14 +3082,14 @@
       </c>
       <c r="N17" s="104"/>
       <c r="O17" s="104"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="122"/>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="123"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="135"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -3136,7 +3130,7 @@
       <c r="BI17" s="12"/>
       <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="116"/>
+      <c r="BL17" s="128"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -3160,14 +3154,14 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="123"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="135"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
@@ -3208,7 +3202,7 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="116"/>
+      <c r="BL18" s="128"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -3232,14 +3226,14 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="122"/>
-      <c r="W19" s="123"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="135"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
@@ -3280,7 +3274,7 @@
       <c r="BI19" s="12"/>
       <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="116"/>
+      <c r="BL19" s="128"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -3302,14 +3296,14 @@
       <c r="M20" s="34"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="123"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="135"/>
       <c r="X20" s="105" t="s">
         <v>20</v>
       </c>
@@ -3352,7 +3346,7 @@
       <c r="BI20" s="12"/>
       <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="116"/>
+      <c r="BL20" s="128"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
@@ -3374,14 +3368,14 @@
       <c r="M21" s="38"/>
       <c r="N21" s="38"/>
       <c r="O21" s="12"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="123"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="135"/>
       <c r="X21" s="11" t="s">
         <v>20</v>
       </c>
@@ -3426,7 +3420,7 @@
       <c r="BI21" s="12"/>
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="116"/>
+      <c r="BL21" s="128"/>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -3448,14 +3442,14 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="123"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="135"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="104" t="s">
         <v>20</v>
@@ -3498,7 +3492,7 @@
       <c r="BI22" s="12"/>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="116"/>
+      <c r="BL22" s="128"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3522,14 +3516,14 @@
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="122"/>
-      <c r="W23" s="123"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="135"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -3570,7 +3564,7 @@
       <c r="BI23" s="12"/>
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="116"/>
+      <c r="BL23" s="128"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -3596,14 +3590,14 @@
       <c r="O24" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="122"/>
-      <c r="V24" s="122"/>
-      <c r="W24" s="123"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="135"/>
       <c r="X24" s="11" t="s">
         <v>20</v>
       </c>
@@ -3646,7 +3640,7 @@
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="116"/>
+      <c r="BL24" s="128"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -3668,14 +3662,14 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="35"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="122"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="123"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="135"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
@@ -3718,7 +3712,7 @@
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="116"/>
+      <c r="BL25" s="128"/>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
@@ -3738,14 +3732,14 @@
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="122"/>
-      <c r="V26" s="122"/>
-      <c r="W26" s="123"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="135"/>
       <c r="X26" s="53"/>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
@@ -3786,7 +3780,7 @@
       <c r="BI26" s="54"/>
       <c r="BJ26" s="54"/>
       <c r="BK26" s="54"/>
-      <c r="BL26" s="116"/>
+      <c r="BL26" s="128"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -3808,14 +3802,14 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="122"/>
-      <c r="V27" s="122"/>
-      <c r="W27" s="123"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="135"/>
       <c r="X27" s="40"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="12"/>
@@ -3860,7 +3854,7 @@
       <c r="BI27" s="12"/>
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="116"/>
+      <c r="BL27" s="128"/>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -3882,14 +3876,14 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="122"/>
-      <c r="V28" s="122"/>
-      <c r="W28" s="123"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="135"/>
       <c r="X28" s="45"/>
       <c r="Y28" s="91"/>
       <c r="Z28" s="91"/>
@@ -3934,7 +3928,7 @@
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="116"/>
+      <c r="BL28" s="128"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -3956,14 +3950,14 @@
       <c r="M29" s="46"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="123"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="135"/>
       <c r="X29" s="79"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
@@ -4006,7 +4000,7 @@
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="116"/>
+      <c r="BL29" s="128"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -4028,14 +4022,14 @@
       <c r="M30" s="46"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="123"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="135"/>
       <c r="X30" s="79"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
@@ -4080,7 +4074,7 @@
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="116"/>
+      <c r="BL30" s="128"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
@@ -4102,14 +4096,14 @@
       <c r="M31" s="46"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="123"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="134"/>
+      <c r="U31" s="134"/>
+      <c r="V31" s="134"/>
+      <c r="W31" s="135"/>
       <c r="X31" s="84"/>
       <c r="Y31" s="34"/>
       <c r="Z31" s="100" t="s">
@@ -4152,7 +4146,7 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="116"/>
+      <c r="BL31" s="128"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
@@ -4174,14 +4168,14 @@
       <c r="M32" s="52"/>
       <c r="N32" s="52"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="123"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="134"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="135"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
@@ -4226,7 +4220,7 @@
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
-      <c r="BL32" s="116"/>
+      <c r="BL32" s="128"/>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -4248,14 +4242,14 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="123"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="134"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="134"/>
+      <c r="W33" s="135"/>
       <c r="X33" s="41"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38" t="s">
@@ -4310,7 +4304,7 @@
       <c r="BI33" s="12"/>
       <c r="BJ33" s="12"/>
       <c r="BK33" s="54"/>
-      <c r="BL33" s="116"/>
+      <c r="BL33" s="128"/>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -4332,14 +4326,14 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="123"/>
+      <c r="P34" s="133"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="134"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="134"/>
+      <c r="U34" s="134"/>
+      <c r="V34" s="134"/>
+      <c r="W34" s="135"/>
       <c r="X34" s="80"/>
       <c r="Y34" s="46"/>
       <c r="Z34" s="77"/>
@@ -4382,7 +4376,7 @@
       <c r="BI34" s="12"/>
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="116"/>
+      <c r="BL34" s="128"/>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -4404,14 +4398,14 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="33"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="123"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="134"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="134"/>
+      <c r="T35" s="134"/>
+      <c r="U35" s="134"/>
+      <c r="V35" s="134"/>
+      <c r="W35" s="135"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="81"/>
       <c r="Z35" s="81"/>
@@ -4454,7 +4448,7 @@
       <c r="BI35" s="12"/>
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="116"/>
+      <c r="BL35" s="128"/>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -4476,14 +4470,14 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="123"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="135"/>
       <c r="X36" s="82"/>
       <c r="Y36" s="83"/>
       <c r="Z36" s="83"/>
@@ -4526,7 +4520,7 @@
       <c r="BI36" s="12"/>
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="116"/>
+      <c r="BL36" s="128"/>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -4548,14 +4542,14 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="123"/>
+      <c r="P37" s="133"/>
+      <c r="Q37" s="134"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="134"/>
+      <c r="T37" s="134"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="134"/>
+      <c r="W37" s="135"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
@@ -4600,7 +4594,7 @@
       <c r="BI37" s="12"/>
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="116"/>
+      <c r="BL37" s="128"/>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -4622,14 +4616,14 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="123"/>
+      <c r="P38" s="133"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="135"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
@@ -4672,7 +4666,7 @@
       <c r="BI38" s="12"/>
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="116"/>
+      <c r="BL38" s="128"/>
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
@@ -4694,14 +4688,14 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
-      <c r="P39" s="121"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="123"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="134"/>
+      <c r="W39" s="135"/>
       <c r="X39" s="11"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
@@ -4744,7 +4738,7 @@
       <c r="BI39" s="12"/>
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="116"/>
+      <c r="BL39" s="128"/>
     </row>
     <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -4766,14 +4760,14 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="123"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="134"/>
+      <c r="R40" s="134"/>
+      <c r="S40" s="134"/>
+      <c r="T40" s="134"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="134"/>
+      <c r="W40" s="135"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -4816,7 +4810,7 @@
       <c r="BI40" s="12"/>
       <c r="BJ40" s="12"/>
       <c r="BK40" s="54"/>
-      <c r="BL40" s="116"/>
+      <c r="BL40" s="128"/>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
@@ -4836,14 +4830,14 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="123"/>
+      <c r="P41" s="133"/>
+      <c r="Q41" s="134"/>
+      <c r="R41" s="134"/>
+      <c r="S41" s="134"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+      <c r="V41" s="134"/>
+      <c r="W41" s="135"/>
       <c r="X41" s="53"/>
       <c r="Y41" s="54"/>
       <c r="Z41" s="54"/>
@@ -4884,7 +4878,7 @@
       <c r="BI41" s="54"/>
       <c r="BJ41" s="54"/>
       <c r="BK41" s="54"/>
-      <c r="BL41" s="116"/>
+      <c r="BL41" s="128"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
@@ -4906,14 +4900,14 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="123"/>
+      <c r="P42" s="133"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="134"/>
+      <c r="S42" s="134"/>
+      <c r="T42" s="134"/>
+      <c r="U42" s="134"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="135"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
@@ -4962,7 +4956,7 @@
       <c r="BI42" s="12"/>
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="116"/>
+      <c r="BL42" s="128"/>
     </row>
     <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
@@ -4984,14 +4978,14 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="123"/>
+      <c r="P43" s="133"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
+      <c r="V43" s="134"/>
+      <c r="W43" s="135"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
@@ -5042,7 +5036,7 @@
       <c r="BI43" s="12"/>
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="116"/>
+      <c r="BL43" s="128"/>
     </row>
     <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -5064,14 +5058,14 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="123"/>
+      <c r="P44" s="133"/>
+      <c r="Q44" s="134"/>
+      <c r="R44" s="134"/>
+      <c r="S44" s="134"/>
+      <c r="T44" s="134"/>
+      <c r="U44" s="134"/>
+      <c r="V44" s="134"/>
+      <c r="W44" s="135"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
@@ -5115,7 +5109,7 @@
       <c r="BI44" s="12"/>
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="116"/>
+      <c r="BL44" s="128"/>
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -5137,14 +5131,14 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
-      <c r="P45" s="121"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="122"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="122"/>
-      <c r="W45" s="123"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="134"/>
+      <c r="R45" s="134"/>
+      <c r="S45" s="134"/>
+      <c r="T45" s="134"/>
+      <c r="U45" s="134"/>
+      <c r="V45" s="134"/>
+      <c r="W45" s="135"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
@@ -5189,7 +5183,7 @@
       <c r="BI45" s="12"/>
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="116"/>
+      <c r="BL45" s="128"/>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
@@ -5211,14 +5205,14 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
-      <c r="P46" s="121"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="122"/>
-      <c r="W46" s="123"/>
+      <c r="P46" s="133"/>
+      <c r="Q46" s="134"/>
+      <c r="R46" s="134"/>
+      <c r="S46" s="134"/>
+      <c r="T46" s="134"/>
+      <c r="U46" s="134"/>
+      <c r="V46" s="134"/>
+      <c r="W46" s="135"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
@@ -5265,7 +5259,7 @@
       <c r="BI46" s="12"/>
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="116"/>
+      <c r="BL46" s="128"/>
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
@@ -5287,14 +5281,14 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
-      <c r="P47" s="121"/>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="122"/>
-      <c r="S47" s="122"/>
-      <c r="T47" s="122"/>
-      <c r="U47" s="122"/>
-      <c r="V47" s="122"/>
-      <c r="W47" s="123"/>
+      <c r="P47" s="133"/>
+      <c r="Q47" s="134"/>
+      <c r="R47" s="134"/>
+      <c r="S47" s="134"/>
+      <c r="T47" s="134"/>
+      <c r="U47" s="134"/>
+      <c r="V47" s="134"/>
+      <c r="W47" s="135"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
@@ -5343,7 +5337,7 @@
       <c r="BI47" s="12"/>
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="116"/>
+      <c r="BL47" s="128"/>
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
@@ -5365,14 +5359,14 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="122"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="122"/>
-      <c r="W48" s="123"/>
+      <c r="P48" s="133"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="134"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
+      <c r="U48" s="134"/>
+      <c r="V48" s="134"/>
+      <c r="W48" s="135"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
@@ -5416,7 +5410,7 @@
       <c r="BI48" s="12"/>
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="116"/>
+      <c r="BL48" s="128"/>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
@@ -5438,14 +5432,14 @@
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
-      <c r="T49" s="122"/>
-      <c r="U49" s="122"/>
-      <c r="V49" s="122"/>
-      <c r="W49" s="123"/>
+      <c r="P49" s="133"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="134"/>
+      <c r="V49" s="134"/>
+      <c r="W49" s="135"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
@@ -5494,7 +5488,7 @@
       <c r="BI49" s="12"/>
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="116"/>
+      <c r="BL49" s="128"/>
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
@@ -5514,14 +5508,14 @@
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="122"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="122"/>
-      <c r="T50" s="122"/>
-      <c r="U50" s="122"/>
-      <c r="V50" s="122"/>
-      <c r="W50" s="123"/>
+      <c r="P50" s="133"/>
+      <c r="Q50" s="134"/>
+      <c r="R50" s="134"/>
+      <c r="S50" s="134"/>
+      <c r="T50" s="134"/>
+      <c r="U50" s="134"/>
+      <c r="V50" s="134"/>
+      <c r="W50" s="135"/>
       <c r="X50" s="53"/>
       <c r="Y50" s="54"/>
       <c r="Z50" s="54"/>
@@ -5562,7 +5556,7 @@
       <c r="BI50" s="54"/>
       <c r="BJ50" s="54"/>
       <c r="BK50" s="54"/>
-      <c r="BL50" s="116"/>
+      <c r="BL50" s="128"/>
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
@@ -5582,14 +5576,14 @@
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
-      <c r="P51" s="121"/>
-      <c r="Q51" s="122"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="122"/>
-      <c r="T51" s="122"/>
-      <c r="U51" s="122"/>
-      <c r="V51" s="122"/>
-      <c r="W51" s="123"/>
+      <c r="P51" s="133"/>
+      <c r="Q51" s="134"/>
+      <c r="R51" s="134"/>
+      <c r="S51" s="134"/>
+      <c r="T51" s="134"/>
+      <c r="U51" s="134"/>
+      <c r="V51" s="134"/>
+      <c r="W51" s="135"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
@@ -5630,7 +5624,7 @@
       <c r="BI51" s="12"/>
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="116"/>
+      <c r="BL51" s="128"/>
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
@@ -5652,14 +5646,14 @@
       <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
-      <c r="P52" s="121"/>
-      <c r="Q52" s="122"/>
-      <c r="R52" s="122"/>
-      <c r="S52" s="122"/>
-      <c r="T52" s="122"/>
-      <c r="U52" s="122"/>
-      <c r="V52" s="122"/>
-      <c r="W52" s="123"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="134"/>
+      <c r="R52" s="134"/>
+      <c r="S52" s="134"/>
+      <c r="T52" s="134"/>
+      <c r="U52" s="134"/>
+      <c r="V52" s="134"/>
+      <c r="W52" s="135"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
@@ -5692,19 +5686,25 @@
       <c r="AW52" s="12"/>
       <c r="AX52" s="12"/>
       <c r="AY52" s="12"/>
-      <c r="AZ52" s="42"/>
+      <c r="AZ52" s="42" t="s">
+        <v>20</v>
+      </c>
       <c r="BA52" s="30"/>
       <c r="BB52" s="12"/>
       <c r="BC52" s="12"/>
-      <c r="BD52" s="12"/>
-      <c r="BE52" s="12"/>
+      <c r="BD52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE52" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="BF52" s="12"/>
       <c r="BG52" s="13"/>
       <c r="BH52" s="11"/>
       <c r="BI52" s="12"/>
       <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="116"/>
+      <c r="BL52" s="128"/>
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
@@ -5726,14 +5726,14 @@
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="122"/>
-      <c r="R53" s="122"/>
-      <c r="S53" s="122"/>
-      <c r="T53" s="122"/>
-      <c r="U53" s="122"/>
-      <c r="V53" s="122"/>
-      <c r="W53" s="123"/>
+      <c r="P53" s="133"/>
+      <c r="Q53" s="134"/>
+      <c r="R53" s="134"/>
+      <c r="S53" s="134"/>
+      <c r="T53" s="134"/>
+      <c r="U53" s="134"/>
+      <c r="V53" s="134"/>
+      <c r="W53" s="135"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
@@ -5778,7 +5778,7 @@
       <c r="BI53" s="12"/>
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="116"/>
+      <c r="BL53" s="128"/>
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
@@ -5800,14 +5800,14 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
-      <c r="P54" s="121"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="122"/>
-      <c r="V54" s="122"/>
-      <c r="W54" s="123"/>
+      <c r="P54" s="133"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="134"/>
+      <c r="W54" s="135"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
@@ -5846,9 +5846,15 @@
       <c r="AW54" s="12"/>
       <c r="AX54" s="12"/>
       <c r="AY54" s="12"/>
-      <c r="AZ54" s="41"/>
-      <c r="BA54" s="38"/>
-      <c r="BB54" s="12"/>
+      <c r="AZ54" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB54" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="BC54" s="12"/>
       <c r="BD54" s="12"/>
       <c r="BE54" s="12"/>
@@ -5858,7 +5864,7 @@
       <c r="BI54" s="12"/>
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="116"/>
+      <c r="BL54" s="128"/>
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
@@ -5880,14 +5886,14 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
-      <c r="P55" s="121"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="122"/>
-      <c r="S55" s="122"/>
-      <c r="T55" s="122"/>
-      <c r="U55" s="122"/>
-      <c r="V55" s="122"/>
-      <c r="W55" s="123"/>
+      <c r="P55" s="133"/>
+      <c r="Q55" s="134"/>
+      <c r="R55" s="134"/>
+      <c r="S55" s="134"/>
+      <c r="T55" s="134"/>
+      <c r="U55" s="134"/>
+      <c r="V55" s="134"/>
+      <c r="W55" s="135"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
@@ -5920,8 +5926,12 @@
       <c r="AW55" s="12"/>
       <c r="AX55" s="12"/>
       <c r="AY55" s="12"/>
-      <c r="AZ55" s="11"/>
-      <c r="BA55" s="12"/>
+      <c r="AZ55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA55" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="BB55" s="30"/>
       <c r="BC55" s="30"/>
       <c r="BD55" s="12"/>
@@ -5932,7 +5942,7 @@
       <c r="BI55" s="12"/>
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="116"/>
+      <c r="BL55" s="128"/>
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
@@ -5954,14 +5964,14 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
-      <c r="P56" s="121"/>
-      <c r="Q56" s="122"/>
-      <c r="R56" s="122"/>
-      <c r="S56" s="122"/>
-      <c r="T56" s="122"/>
-      <c r="U56" s="122"/>
-      <c r="V56" s="122"/>
-      <c r="W56" s="123"/>
+      <c r="P56" s="133"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="134"/>
+      <c r="V56" s="134"/>
+      <c r="W56" s="135"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
@@ -5997,8 +6007,12 @@
       <c r="AX56" s="12"/>
       <c r="AY56" s="104"/>
       <c r="AZ56" s="11"/>
-      <c r="BA56" s="12"/>
-      <c r="BB56" s="34"/>
+      <c r="BA56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB56" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="BC56" s="34"/>
       <c r="BD56" s="12"/>
       <c r="BE56" s="12"/>
@@ -6008,7 +6022,7 @@
       <c r="BI56" s="12"/>
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="116"/>
+      <c r="BL56" s="128"/>
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="s">
@@ -6028,14 +6042,14 @@
       <c r="M57" s="54"/>
       <c r="N57" s="54"/>
       <c r="O57" s="54"/>
-      <c r="P57" s="121"/>
-      <c r="Q57" s="122"/>
-      <c r="R57" s="122"/>
-      <c r="S57" s="122"/>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="122"/>
-      <c r="W57" s="123"/>
+      <c r="P57" s="133"/>
+      <c r="Q57" s="134"/>
+      <c r="R57" s="134"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="134"/>
+      <c r="V57" s="134"/>
+      <c r="W57" s="135"/>
       <c r="X57" s="53"/>
       <c r="Y57" s="54"/>
       <c r="Z57" s="54"/>
@@ -6076,79 +6090,83 @@
       <c r="BI57" s="54"/>
       <c r="BJ57" s="54"/>
       <c r="BK57" s="54"/>
-      <c r="BL57" s="116"/>
+      <c r="BL57" s="128"/>
     </row>
-    <row r="58" spans="1:64" s="140" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="134" t="s">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A58" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="135"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="137"/>
-      <c r="M58" s="138"/>
-      <c r="N58" s="138"/>
-      <c r="O58" s="138"/>
-      <c r="P58" s="121"/>
-      <c r="Q58" s="122"/>
-      <c r="R58" s="122"/>
-      <c r="S58" s="122"/>
-      <c r="T58" s="122"/>
-      <c r="U58" s="122"/>
-      <c r="V58" s="122"/>
-      <c r="W58" s="123"/>
-      <c r="X58" s="137"/>
-      <c r="Y58" s="138"/>
-      <c r="Z58" s="138"/>
-      <c r="AA58" s="138"/>
-      <c r="AB58" s="137"/>
-      <c r="AC58" s="138"/>
-      <c r="AD58" s="138"/>
-      <c r="AE58" s="138"/>
-      <c r="AF58" s="138"/>
-      <c r="AG58" s="138"/>
-      <c r="AH58" s="138"/>
-      <c r="AI58" s="139"/>
-      <c r="AJ58" s="137"/>
-      <c r="AK58" s="138"/>
-      <c r="AL58" s="138"/>
-      <c r="AM58" s="138"/>
-      <c r="AN58" s="137"/>
-      <c r="AO58" s="138"/>
-      <c r="AP58" s="138"/>
-      <c r="AQ58" s="138"/>
-      <c r="AR58" s="138"/>
-      <c r="AS58" s="138"/>
-      <c r="AT58" s="138"/>
-      <c r="AU58" s="139" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV58" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW58" s="138"/>
-      <c r="AX58" s="138"/>
-      <c r="AY58" s="138"/>
-      <c r="AZ58" s="137"/>
-      <c r="BA58" s="138"/>
-      <c r="BB58" s="138"/>
-      <c r="BC58" s="138"/>
-      <c r="BD58" s="138"/>
-      <c r="BE58" s="138"/>
-      <c r="BF58" s="138"/>
-      <c r="BG58" s="139"/>
-      <c r="BH58" s="137"/>
-      <c r="BI58" s="138"/>
-      <c r="BJ58" s="138"/>
-      <c r="BK58" s="138"/>
-      <c r="BL58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="119"/>
+      <c r="N58" s="119"/>
+      <c r="O58" s="119"/>
+      <c r="P58" s="133"/>
+      <c r="Q58" s="134"/>
+      <c r="R58" s="134"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="134"/>
+      <c r="U58" s="134"/>
+      <c r="V58" s="134"/>
+      <c r="W58" s="135"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="119"/>
+      <c r="Z58" s="119"/>
+      <c r="AA58" s="119"/>
+      <c r="AB58" s="118"/>
+      <c r="AC58" s="119"/>
+      <c r="AD58" s="119"/>
+      <c r="AE58" s="119"/>
+      <c r="AF58" s="119"/>
+      <c r="AG58" s="119"/>
+      <c r="AH58" s="119"/>
+      <c r="AI58" s="120"/>
+      <c r="AJ58" s="118"/>
+      <c r="AK58" s="119"/>
+      <c r="AL58" s="119"/>
+      <c r="AM58" s="119"/>
+      <c r="AN58" s="118"/>
+      <c r="AO58" s="119"/>
+      <c r="AP58" s="119"/>
+      <c r="AQ58" s="119"/>
+      <c r="AR58" s="119"/>
+      <c r="AS58" s="119"/>
+      <c r="AT58" s="119"/>
+      <c r="AU58" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV58" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW58" s="119"/>
+      <c r="AX58" s="119"/>
+      <c r="AY58" s="119"/>
+      <c r="AZ58" s="118"/>
+      <c r="BA58" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB58" s="119" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC58" s="119"/>
+      <c r="BD58" s="119"/>
+      <c r="BE58" s="119"/>
+      <c r="BF58" s="119"/>
+      <c r="BG58" s="120"/>
+      <c r="BH58" s="118"/>
+      <c r="BI58" s="119"/>
+      <c r="BJ58" s="119"/>
+      <c r="BK58" s="119"/>
+      <c r="BL58" s="128"/>
     </row>
     <row r="59" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
@@ -6170,14 +6188,14 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
       <c r="O59" s="17"/>
-      <c r="P59" s="124"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
-      <c r="V59" s="125"/>
-      <c r="W59" s="126"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137"/>
+      <c r="T59" s="137"/>
+      <c r="U59" s="137"/>
+      <c r="V59" s="137"/>
+      <c r="W59" s="138"/>
       <c r="X59" s="16"/>
       <c r="Y59" s="17"/>
       <c r="Z59" s="17"/>
@@ -6216,10 +6234,18 @@
       <c r="AY59" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AZ59" s="112"/>
-      <c r="BA59" s="106"/>
-      <c r="BB59" s="106"/>
-      <c r="BC59" s="106"/>
+      <c r="AZ59" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA59" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB59" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC59" s="106" t="s">
+        <v>20</v>
+      </c>
       <c r="BD59" s="47"/>
       <c r="BE59" s="113" t="s">
         <v>20</v>
@@ -6230,77 +6256,84 @@
       <c r="BI59" s="47"/>
       <c r="BJ59" s="47"/>
       <c r="BK59" s="47"/>
-      <c r="BL59" s="116"/>
+      <c r="BL59" s="128"/>
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="118"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="118"/>
-      <c r="O60" s="118"/>
-      <c r="P60" s="118"/>
-      <c r="Q60" s="118"/>
-      <c r="R60" s="118"/>
-      <c r="S60" s="118"/>
-      <c r="T60" s="118"/>
-      <c r="U60" s="118"/>
-      <c r="V60" s="118"/>
-      <c r="W60" s="118"/>
-      <c r="X60" s="118"/>
-      <c r="Y60" s="118"/>
-      <c r="Z60" s="118"/>
-      <c r="AA60" s="118"/>
-      <c r="AB60" s="118"/>
-      <c r="AC60" s="118"/>
-      <c r="AD60" s="118"/>
-      <c r="AE60" s="118"/>
-      <c r="AF60" s="118"/>
-      <c r="AG60" s="118"/>
-      <c r="AH60" s="118"/>
-      <c r="AI60" s="118"/>
-      <c r="AJ60" s="118"/>
-      <c r="AK60" s="118"/>
-      <c r="AL60" s="118"/>
-      <c r="AM60" s="118"/>
-      <c r="AN60" s="118"/>
-      <c r="AO60" s="118"/>
-      <c r="AP60" s="118"/>
-      <c r="AQ60" s="118"/>
-      <c r="AR60" s="118"/>
-      <c r="AS60" s="118"/>
-      <c r="AT60" s="118"/>
-      <c r="AU60" s="118"/>
-      <c r="AV60" s="118"/>
-      <c r="AW60" s="118"/>
-      <c r="AX60" s="118"/>
-      <c r="AY60" s="118"/>
-      <c r="AZ60" s="118"/>
-      <c r="BA60" s="118"/>
-      <c r="BB60" s="118"/>
-      <c r="BC60" s="118"/>
-      <c r="BD60" s="118"/>
-      <c r="BE60" s="118"/>
-      <c r="BF60" s="118"/>
-      <c r="BG60" s="118"/>
-      <c r="BH60" s="118"/>
-      <c r="BI60" s="118"/>
-      <c r="BJ60" s="118"/>
-      <c r="BK60" s="118"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="130"/>
+      <c r="O60" s="130"/>
+      <c r="P60" s="130"/>
+      <c r="Q60" s="130"/>
+      <c r="R60" s="130"/>
+      <c r="S60" s="130"/>
+      <c r="T60" s="130"/>
+      <c r="U60" s="130"/>
+      <c r="V60" s="130"/>
+      <c r="W60" s="130"/>
+      <c r="X60" s="130"/>
+      <c r="Y60" s="130"/>
+      <c r="Z60" s="130"/>
+      <c r="AA60" s="130"/>
+      <c r="AB60" s="130"/>
+      <c r="AC60" s="130"/>
+      <c r="AD60" s="130"/>
+      <c r="AE60" s="130"/>
+      <c r="AF60" s="130"/>
+      <c r="AG60" s="130"/>
+      <c r="AH60" s="130"/>
+      <c r="AI60" s="130"/>
+      <c r="AJ60" s="130"/>
+      <c r="AK60" s="130"/>
+      <c r="AL60" s="130"/>
+      <c r="AM60" s="130"/>
+      <c r="AN60" s="130"/>
+      <c r="AO60" s="130"/>
+      <c r="AP60" s="130"/>
+      <c r="AQ60" s="130"/>
+      <c r="AR60" s="130"/>
+      <c r="AS60" s="130"/>
+      <c r="AT60" s="130"/>
+      <c r="AU60" s="130"/>
+      <c r="AV60" s="130"/>
+      <c r="AW60" s="130"/>
+      <c r="AX60" s="130"/>
+      <c r="AY60" s="130"/>
+      <c r="AZ60" s="130"/>
+      <c r="BA60" s="130"/>
+      <c r="BB60" s="130"/>
+      <c r="BC60" s="130"/>
+      <c r="BD60" s="130"/>
+      <c r="BE60" s="130"/>
+      <c r="BF60" s="130"/>
+      <c r="BG60" s="130"/>
+      <c r="BH60" s="130"/>
+      <c r="BI60" s="130"/>
+      <c r="BJ60" s="130"/>
+      <c r="BK60" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BL10:BL59"/>
+    <mergeCell ref="A60:BK60"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="P13:W59"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:AU10"/>
+    <mergeCell ref="AV10:AY10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P10:S10"/>
     <mergeCell ref="T10:W10"/>
@@ -6316,13 +6349,6 @@
     <mergeCell ref="BD10:BG10"/>
     <mergeCell ref="AZ10:BC10"/>
     <mergeCell ref="BH10:BK10"/>
-    <mergeCell ref="BL10:BL59"/>
-    <mergeCell ref="A60:BK60"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="P13:W59"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:AU10"/>
-    <mergeCell ref="AV10:AY10"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="B13:B59">
@@ -6351,14 +6377,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6575,21 +6599,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6614,9 +6637,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>